--- a/BackTest/2020-01-21 BackTest APIS.xlsx
+++ b/BackTest/2020-01-21 BackTest APIS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M134"/>
+  <dimension ref="A1:N134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,6 +647,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,6 +683,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -707,6 +719,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -742,6 +755,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -777,6 +791,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -812,6 +827,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -847,6 +863,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -882,6 +899,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -917,6 +935,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -952,6 +971,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -987,6 +1007,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1022,6 +1043,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1057,6 +1079,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1092,6 +1115,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1127,6 +1151,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1162,6 +1187,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1197,6 +1223,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1232,6 +1259,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1267,6 +1295,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1302,6 +1331,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1337,6 +1367,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1372,6 +1403,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1407,6 +1439,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1442,6 +1475,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1477,6 +1511,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1512,6 +1547,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1551,6 +1587,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1594,6 +1631,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1637,6 +1675,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1672,6 +1711,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1707,6 +1747,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1742,6 +1783,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1777,6 +1819,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1812,6 +1855,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1847,6 +1891,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1882,6 +1927,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1917,6 +1963,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1952,6 +1999,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1987,6 +2035,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2022,6 +2071,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2057,6 +2107,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2092,6 +2143,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2127,6 +2179,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2162,6 +2215,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2197,6 +2251,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2232,6 +2287,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2267,6 +2323,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2302,6 +2359,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2337,6 +2395,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2372,6 +2431,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2407,6 +2467,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2442,6 +2503,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2481,6 +2543,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2522,6 +2585,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2563,6 +2627,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2598,6 +2663,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2633,6 +2699,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2668,6 +2735,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2703,6 +2771,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2738,6 +2807,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2773,6 +2843,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2808,6 +2879,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2843,6 +2915,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2878,6 +2951,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2913,6 +2987,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2948,6 +3023,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2983,6 +3059,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3018,6 +3095,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3053,6 +3131,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3088,6 +3167,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3123,6 +3203,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3158,6 +3239,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3193,6 +3275,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3228,6 +3311,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3263,6 +3347,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3298,6 +3383,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3333,6 +3419,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3368,6 +3455,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3403,6 +3491,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3438,6 +3527,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3473,6 +3563,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3508,6 +3599,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3543,6 +3635,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3578,6 +3671,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3605,7 +3699,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
@@ -3613,6 +3707,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3640,7 +3735,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
@@ -3648,6 +3743,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3683,6 +3779,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3718,6 +3815,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3753,6 +3851,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3788,6 +3887,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3823,6 +3923,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3850,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
@@ -3858,6 +3959,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3885,7 +3987,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
@@ -3893,6 +3995,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3920,7 +4023,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
@@ -3928,6 +4031,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3963,6 +4067,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3998,6 +4103,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4025,7 +4131,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
@@ -4033,6 +4139,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4060,7 +4167,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
@@ -4068,6 +4175,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4095,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
@@ -4103,6 +4211,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4130,7 +4239,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
@@ -4138,6 +4247,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4173,6 +4283,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4208,6 +4319,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4243,6 +4355,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4270,7 +4383,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
@@ -4278,6 +4391,7 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4305,7 +4419,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
@@ -4313,6 +4427,7 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4348,6 +4463,7 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4383,6 +4499,7 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4418,6 +4535,7 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4453,6 +4571,7 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4488,6 +4607,7 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4523,6 +4643,7 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4558,6 +4679,7 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4593,6 +4715,7 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4620,7 +4743,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
@@ -4628,6 +4751,7 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4663,6 +4787,7 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4698,6 +4823,7 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4733,6 +4859,7 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4768,6 +4895,7 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4795,7 +4923,7 @@
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
@@ -4803,6 +4931,7 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4830,7 +4959,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
@@ -4838,6 +4967,7 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4865,7 +4995,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
@@ -4873,6 +5003,7 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4900,7 +5031,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
@@ -4908,6 +5039,7 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4935,7 +5067,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
@@ -4943,6 +5075,7 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4978,6 +5111,7 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5005,7 +5139,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
@@ -5013,6 +5147,7 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5040,7 +5175,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
@@ -5048,6 +5183,7 @@
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5083,6 +5219,7 @@
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5118,6 +5255,7 @@
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-21 BackTest APIS.xlsx
+++ b/BackTest/2020-01-21 BackTest APIS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N134"/>
+  <dimension ref="A1:N163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5780999999999999</v>
+        <v>0.5813</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5780999999999999</v>
+        <v>0.5813</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5780999999999999</v>
+        <v>0.5813</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5780999999999999</v>
+        <v>0.5813</v>
       </c>
       <c r="F2" t="n">
-        <v>1319964.6947</v>
+        <v>2139108.7092</v>
       </c>
       <c r="G2" t="n">
-        <v>4427094.449812285</v>
+        <v>12273363.2023</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5819</v>
+        <v>0.5845</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5819</v>
+        <v>0.5845</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5819</v>
+        <v>0.5845</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5819</v>
+        <v>0.5845</v>
       </c>
       <c r="F3" t="n">
-        <v>901.8997000000001</v>
+        <v>1165749.4539</v>
       </c>
       <c r="G3" t="n">
-        <v>4427996.349512285</v>
+        <v>13439112.6562</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5795</v>
+        <v>0.5839</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5795</v>
+        <v>0.5839</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5795</v>
+        <v>0.5839</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5795</v>
+        <v>0.5839</v>
       </c>
       <c r="F4" t="n">
-        <v>1314002.5415</v>
+        <v>1418822.7756</v>
       </c>
       <c r="G4" t="n">
-        <v>3113993.808012284</v>
+        <v>12020289.8806</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5819</v>
+        <v>0.5812</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5819</v>
+        <v>0.5812</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5819</v>
+        <v>0.5812</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5819</v>
+        <v>0.5812</v>
       </c>
       <c r="F5" t="n">
-        <v>923.8546</v>
+        <v>2095013.8553</v>
       </c>
       <c r="G5" t="n">
-        <v>3114917.662612285</v>
+        <v>9925276.0253</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5796</v>
+        <v>0.5858</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5819</v>
+        <v>0.5867</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5819</v>
+        <v>0.5867</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5796</v>
+        <v>0.5858</v>
       </c>
       <c r="F6" t="n">
-        <v>2171811.2862</v>
+        <v>1211207.9766</v>
       </c>
       <c r="G6" t="n">
-        <v>3114917.662612285</v>
+        <v>11136484.0019</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5800999999999999</v>
+        <v>0.5847</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5800999999999999</v>
+        <v>0.5847</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5800999999999999</v>
+        <v>0.5847</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5800999999999999</v>
+        <v>0.5847</v>
       </c>
       <c r="F7" t="n">
-        <v>1237552.3061</v>
+        <v>787881.01</v>
       </c>
       <c r="G7" t="n">
-        <v>1877365.356512285</v>
+        <v>10348602.9919</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5819</v>
+        <v>0.5838</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5819</v>
+        <v>0.5838</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5819</v>
+        <v>0.5838</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5819</v>
+        <v>0.5838</v>
       </c>
       <c r="F8" t="n">
-        <v>1085.8358</v>
+        <v>996479.1515</v>
       </c>
       <c r="G8" t="n">
-        <v>1878451.192312285</v>
+        <v>9352123.840400001</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5786</v>
+        <v>0.5813</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5786</v>
+        <v>0.5813</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5786</v>
+        <v>0.5813</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5786</v>
+        <v>0.5813</v>
       </c>
       <c r="F9" t="n">
-        <v>1499362.0952</v>
+        <v>1783400.4919</v>
       </c>
       <c r="G9" t="n">
-        <v>379089.0971122845</v>
+        <v>7568723.348500001</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5819</v>
+        <v>0.5796</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5819</v>
+        <v>0.5796</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5819</v>
+        <v>0.5796</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5819</v>
+        <v>0.5796</v>
       </c>
       <c r="F10" t="n">
-        <v>894.8928</v>
+        <v>41124.9138</v>
       </c>
       <c r="G10" t="n">
-        <v>379983.9899122845</v>
+        <v>7527598.434700001</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5816</v>
+        <v>0.5796</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5816</v>
+        <v>0.5796</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5816</v>
+        <v>0.5796</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5816</v>
+        <v>0.5796</v>
       </c>
       <c r="F11" t="n">
-        <v>2294969.1649</v>
+        <v>1613560.0315</v>
       </c>
       <c r="G11" t="n">
-        <v>-1914985.174987716</v>
+        <v>7527598.434700001</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5819</v>
+        <v>0.579</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5868</v>
+        <v>0.579</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5868</v>
+        <v>0.579</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5819</v>
+        <v>0.579</v>
       </c>
       <c r="F12" t="n">
-        <v>85264.41090886162</v>
+        <v>2535122.8492</v>
       </c>
       <c r="G12" t="n">
-        <v>-1829720.764078854</v>
+        <v>4992475.585500001</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5803</v>
+        <v>0.5796</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5803</v>
+        <v>0.5796</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5803</v>
+        <v>0.5796</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5803</v>
+        <v>0.5796</v>
       </c>
       <c r="F13" t="n">
-        <v>2170076.3997</v>
+        <v>1725.327812284334</v>
       </c>
       <c r="G13" t="n">
-        <v>-3999797.163778854</v>
+        <v>4994200.913312285</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5868</v>
+        <v>0.5786</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5868</v>
+        <v>0.5786</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5868</v>
+        <v>0.5786</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5868</v>
+        <v>0.5786</v>
       </c>
       <c r="F14" t="n">
-        <v>866.3787</v>
+        <v>2510875.3922</v>
       </c>
       <c r="G14" t="n">
-        <v>-3998930.785078854</v>
+        <v>2483325.521112285</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5787</v>
+        <v>0.5796</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5787</v>
+        <v>0.5796</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5787</v>
+        <v>0.5796</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5787</v>
+        <v>0.5796</v>
       </c>
       <c r="F15" t="n">
-        <v>651670.7661</v>
+        <v>2000000</v>
       </c>
       <c r="G15" t="n">
-        <v>-4650601.551178854</v>
+        <v>4483325.521112286</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -954,10 +954,10 @@
         <v>0.5784</v>
       </c>
       <c r="F16" t="n">
-        <v>2013500.1194</v>
+        <v>1036506.8093</v>
       </c>
       <c r="G16" t="n">
-        <v>-6664101.670578854</v>
+        <v>3446818.711812286</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -978,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.58</v>
+        <v>0.5788</v>
       </c>
       <c r="C17" t="n">
-        <v>0.58</v>
+        <v>0.5788</v>
       </c>
       <c r="D17" t="n">
-        <v>0.58</v>
+        <v>0.5788</v>
       </c>
       <c r="E17" t="n">
-        <v>0.58</v>
+        <v>0.5788</v>
       </c>
       <c r="F17" t="n">
-        <v>214750.877</v>
+        <v>2033057.043</v>
       </c>
       <c r="G17" t="n">
-        <v>-6449350.793578854</v>
+        <v>5479875.754812285</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1014,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.5795</v>
+        <v>0.579</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5795</v>
+        <v>0.579</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5795</v>
+        <v>0.579</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5795</v>
+        <v>0.579</v>
       </c>
       <c r="F18" t="n">
-        <v>2260191.7259</v>
+        <v>2269397.6673</v>
       </c>
       <c r="G18" t="n">
-        <v>-8709542.519478854</v>
+        <v>7749273.422112285</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1050,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.584</v>
+        <v>0.5796</v>
       </c>
       <c r="C19" t="n">
-        <v>0.584</v>
+        <v>0.5796</v>
       </c>
       <c r="D19" t="n">
-        <v>0.584</v>
+        <v>0.5796</v>
       </c>
       <c r="E19" t="n">
-        <v>0.584</v>
+        <v>0.5796</v>
       </c>
       <c r="F19" t="n">
-        <v>1869592.5481</v>
+        <v>2556</v>
       </c>
       <c r="G19" t="n">
-        <v>-6839949.971378854</v>
+        <v>7751829.422112285</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1086,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.5790999999999999</v>
+        <v>0.578</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5790999999999999</v>
+        <v>0.578</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5790999999999999</v>
+        <v>0.578</v>
       </c>
       <c r="E20" t="n">
-        <v>0.5790999999999999</v>
+        <v>0.578</v>
       </c>
       <c r="F20" t="n">
-        <v>1623173.8374</v>
+        <v>882680.0459</v>
       </c>
       <c r="G20" t="n">
-        <v>-8463123.808778854</v>
+        <v>6869149.376212285</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1122,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5819</v>
+        <v>0.5796</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5819</v>
+        <v>0.5796</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5819</v>
+        <v>0.5796</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5819</v>
+        <v>0.5796</v>
       </c>
       <c r="F21" t="n">
-        <v>715564.3597</v>
+        <v>55999.8941</v>
       </c>
       <c r="G21" t="n">
-        <v>-7747559.449078854</v>
+        <v>6925149.270312285</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1158,22 +1158,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.585</v>
+        <v>0.5796</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5868</v>
+        <v>0.5818</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5868</v>
+        <v>0.5818</v>
       </c>
       <c r="E22" t="n">
-        <v>0.585</v>
+        <v>0.5796</v>
       </c>
       <c r="F22" t="n">
-        <v>3351384.0231</v>
+        <v>1100000</v>
       </c>
       <c r="G22" t="n">
-        <v>-4396175.425978854</v>
+        <v>8025149.270312285</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1194,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.58</v>
+        <v>0.5819</v>
       </c>
       <c r="C23" t="n">
-        <v>0.58</v>
+        <v>0.5819</v>
       </c>
       <c r="D23" t="n">
-        <v>0.58</v>
+        <v>0.5819</v>
       </c>
       <c r="E23" t="n">
-        <v>0.58</v>
+        <v>0.5819</v>
       </c>
       <c r="F23" t="n">
-        <v>1342783.1894</v>
+        <v>1600000</v>
       </c>
       <c r="G23" t="n">
-        <v>-5738958.615378855</v>
+        <v>9625149.270312285</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1230,22 +1230,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.5831</v>
+        <v>0.5788</v>
       </c>
       <c r="C24" t="n">
-        <v>0.5831</v>
+        <v>0.5819</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5831</v>
+        <v>0.5819</v>
       </c>
       <c r="E24" t="n">
-        <v>0.5831</v>
+        <v>0.5788</v>
       </c>
       <c r="F24" t="n">
-        <v>2304545.4366</v>
+        <v>2353743.9366</v>
       </c>
       <c r="G24" t="n">
-        <v>-3434413.178778855</v>
+        <v>9625149.270312285</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1266,22 +1266,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5828</v>
+        <v>0.5785</v>
       </c>
       <c r="C25" t="n">
-        <v>0.5828</v>
+        <v>0.5785</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5828</v>
+        <v>0.5785</v>
       </c>
       <c r="E25" t="n">
-        <v>0.5828</v>
+        <v>0.5785</v>
       </c>
       <c r="F25" t="n">
-        <v>1940884.9539</v>
+        <v>933267.7117</v>
       </c>
       <c r="G25" t="n">
-        <v>-5375298.132678855</v>
+        <v>8691881.558612285</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1302,22 +1302,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.5800999999999999</v>
+        <v>0.5819</v>
       </c>
       <c r="C26" t="n">
-        <v>0.5773</v>
+        <v>0.5819</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5800999999999999</v>
+        <v>0.5819</v>
       </c>
       <c r="E26" t="n">
-        <v>0.5773</v>
+        <v>0.5819</v>
       </c>
       <c r="F26" t="n">
-        <v>10000000</v>
+        <v>865.3722</v>
       </c>
       <c r="G26" t="n">
-        <v>-15375298.13267886</v>
+        <v>8692746.930812284</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.5864</v>
+        <v>0.5817</v>
       </c>
       <c r="C27" t="n">
-        <v>0.5823</v>
+        <v>0.5817</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5864</v>
+        <v>0.5817</v>
       </c>
       <c r="E27" t="n">
-        <v>0.5823</v>
+        <v>0.5817</v>
       </c>
       <c r="F27" t="n">
-        <v>1127693.8623</v>
+        <v>2337569.6889</v>
       </c>
       <c r="G27" t="n">
-        <v>-14247604.27037886</v>
+        <v>6355177.241912285</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1374,22 +1374,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.5864</v>
+        <v>0.5819</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5864</v>
+        <v>0.5819</v>
       </c>
       <c r="D28" t="n">
-        <v>0.5864</v>
+        <v>0.5819</v>
       </c>
       <c r="E28" t="n">
-        <v>0.5864</v>
+        <v>0.5819</v>
       </c>
       <c r="F28" t="n">
-        <v>864.071</v>
+        <v>873.6853</v>
       </c>
       <c r="G28" t="n">
-        <v>-14246740.19937886</v>
+        <v>6356050.927212285</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1410,22 +1410,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.5774</v>
+        <v>0.5803</v>
       </c>
       <c r="C29" t="n">
-        <v>0.5774</v>
+        <v>0.5803</v>
       </c>
       <c r="D29" t="n">
-        <v>0.5774</v>
+        <v>0.5803</v>
       </c>
       <c r="E29" t="n">
-        <v>0.5774</v>
+        <v>0.5803</v>
       </c>
       <c r="F29" t="n">
-        <v>6184.5</v>
+        <v>609870.8515</v>
       </c>
       <c r="G29" t="n">
-        <v>-14252924.69937886</v>
+        <v>5746180.075712285</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1446,22 +1446,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.581</v>
+        <v>0.5819</v>
       </c>
       <c r="C30" t="n">
-        <v>0.581</v>
+        <v>0.5819</v>
       </c>
       <c r="D30" t="n">
-        <v>0.581</v>
+        <v>0.5819</v>
       </c>
       <c r="E30" t="n">
-        <v>0.581</v>
+        <v>0.5819</v>
       </c>
       <c r="F30" t="n">
-        <v>1875174.7488</v>
+        <v>879.0688</v>
       </c>
       <c r="G30" t="n">
-        <v>-12377749.95057886</v>
+        <v>5747059.144512285</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1482,31 +1482,35 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.5864</v>
+        <v>0.5780999999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>0.5864</v>
+        <v>0.5780999999999999</v>
       </c>
       <c r="D31" t="n">
-        <v>0.5864</v>
+        <v>0.5780999999999999</v>
       </c>
       <c r="E31" t="n">
-        <v>0.5864</v>
+        <v>0.5780999999999999</v>
       </c>
       <c r="F31" t="n">
-        <v>866.6362</v>
+        <v>1319964.6947</v>
       </c>
       <c r="G31" t="n">
-        <v>-12376883.31437886</v>
+        <v>4427094.449812285</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0.5819</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.5819</v>
+      </c>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
@@ -1518,32 +1522,40 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.5863</v>
+        <v>0.5819</v>
       </c>
       <c r="C32" t="n">
-        <v>0.5776</v>
+        <v>0.5819</v>
       </c>
       <c r="D32" t="n">
-        <v>0.5863</v>
+        <v>0.5819</v>
       </c>
       <c r="E32" t="n">
-        <v>0.5776</v>
+        <v>0.5819</v>
       </c>
       <c r="F32" t="n">
-        <v>1867578.4253</v>
+        <v>901.8997000000001</v>
       </c>
       <c r="G32" t="n">
-        <v>-14244461.73967886</v>
+        <v>4427996.349512285</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0.5780999999999999</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.5819</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1554,22 +1566,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.5802</v>
+        <v>0.5795</v>
       </c>
       <c r="C33" t="n">
-        <v>0.5802</v>
+        <v>0.5795</v>
       </c>
       <c r="D33" t="n">
-        <v>0.5802</v>
+        <v>0.5795</v>
       </c>
       <c r="E33" t="n">
-        <v>0.5802</v>
+        <v>0.5795</v>
       </c>
       <c r="F33" t="n">
-        <v>1493245.1311</v>
+        <v>1314002.5415</v>
       </c>
       <c r="G33" t="n">
-        <v>-12751216.60857886</v>
+        <v>3113993.808012284</v>
       </c>
       <c r="H33" t="n">
         <v>1</v>
@@ -1578,12 +1590,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.5776</v>
+        <v>0.5819</v>
       </c>
       <c r="K33" t="n">
-        <v>0.5776</v>
-      </c>
-      <c r="L33" t="inlineStr"/>
+        <v>0.5819</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1594,22 +1610,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.5864</v>
+        <v>0.5819</v>
       </c>
       <c r="C34" t="n">
-        <v>0.5864</v>
+        <v>0.5819</v>
       </c>
       <c r="D34" t="n">
-        <v>0.5864</v>
+        <v>0.5819</v>
       </c>
       <c r="E34" t="n">
-        <v>0.5864</v>
+        <v>0.5819</v>
       </c>
       <c r="F34" t="n">
-        <v>877.7978000000001</v>
+        <v>923.8546</v>
       </c>
       <c r="G34" t="n">
-        <v>-12750338.81077885</v>
+        <v>3114917.662612285</v>
       </c>
       <c r="H34" t="n">
         <v>1</v>
@@ -1618,16 +1634,12 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0.5802</v>
+        <v>0.5795</v>
       </c>
       <c r="K34" t="n">
-        <v>0.5776</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0.5795</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1638,22 +1650,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.5786</v>
+        <v>0.5796</v>
       </c>
       <c r="C35" t="n">
-        <v>0.5786</v>
+        <v>0.5819</v>
       </c>
       <c r="D35" t="n">
-        <v>0.5786</v>
+        <v>0.5819</v>
       </c>
       <c r="E35" t="n">
-        <v>0.5786</v>
+        <v>0.5796</v>
       </c>
       <c r="F35" t="n">
-        <v>1687074.6809</v>
+        <v>2171811.2862</v>
       </c>
       <c r="G35" t="n">
-        <v>-14437413.49167885</v>
+        <v>3114917.662612285</v>
       </c>
       <c r="H35" t="n">
         <v>1</v>
@@ -1662,10 +1674,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0.5864</v>
+        <v>0.5819</v>
       </c>
       <c r="K35" t="n">
-        <v>0.5776</v>
+        <v>0.5795</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
@@ -1682,22 +1694,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.5864</v>
+        <v>0.5800999999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>0.5864</v>
+        <v>0.5800999999999999</v>
       </c>
       <c r="D36" t="n">
-        <v>0.5864</v>
+        <v>0.5800999999999999</v>
       </c>
       <c r="E36" t="n">
-        <v>0.5864</v>
+        <v>0.5800999999999999</v>
       </c>
       <c r="F36" t="n">
-        <v>897.6127</v>
+        <v>1237552.3061</v>
       </c>
       <c r="G36" t="n">
-        <v>-14436515.87897885</v>
+        <v>1877365.356512285</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1706,8 +1718,14 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>0.5795</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1718,31 +1736,35 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.5864</v>
+        <v>0.5819</v>
       </c>
       <c r="C37" t="n">
-        <v>0.5864</v>
+        <v>0.5819</v>
       </c>
       <c r="D37" t="n">
-        <v>0.5864</v>
+        <v>0.5819</v>
       </c>
       <c r="E37" t="n">
-        <v>0.5864</v>
+        <v>0.5819</v>
       </c>
       <c r="F37" t="n">
-        <v>1707.389</v>
+        <v>1085.8358</v>
       </c>
       <c r="G37" t="n">
-        <v>-14436515.87897885</v>
+        <v>1878451.192312285</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0.5800999999999999</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.5800999999999999</v>
+      </c>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
@@ -1754,22 +1776,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.584</v>
+        <v>0.5786</v>
       </c>
       <c r="C38" t="n">
-        <v>0.5864</v>
+        <v>0.5786</v>
       </c>
       <c r="D38" t="n">
-        <v>0.5864</v>
+        <v>0.5786</v>
       </c>
       <c r="E38" t="n">
-        <v>0.584</v>
+        <v>0.5786</v>
       </c>
       <c r="F38" t="n">
-        <v>2017791.0424</v>
+        <v>1499362.0952</v>
       </c>
       <c r="G38" t="n">
-        <v>-14436515.87897885</v>
+        <v>379089.0971122845</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1778,8 +1800,14 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>0.5800999999999999</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1790,22 +1818,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.5855</v>
+        <v>0.5819</v>
       </c>
       <c r="C39" t="n">
-        <v>0.5855</v>
+        <v>0.5819</v>
       </c>
       <c r="D39" t="n">
-        <v>0.5855</v>
+        <v>0.5819</v>
       </c>
       <c r="E39" t="n">
-        <v>0.5855</v>
+        <v>0.5819</v>
       </c>
       <c r="F39" t="n">
-        <v>2028863.296</v>
+        <v>894.8928</v>
       </c>
       <c r="G39" t="n">
-        <v>-16465379.17497885</v>
+        <v>379983.9899122845</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1814,8 +1842,14 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>0.5800999999999999</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1826,22 +1860,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.5785</v>
+        <v>0.5816</v>
       </c>
       <c r="C40" t="n">
-        <v>0.5785</v>
+        <v>0.5816</v>
       </c>
       <c r="D40" t="n">
-        <v>0.5785</v>
+        <v>0.5816</v>
       </c>
       <c r="E40" t="n">
-        <v>0.5785</v>
+        <v>0.5816</v>
       </c>
       <c r="F40" t="n">
-        <v>2331866.9829</v>
+        <v>2294969.1649</v>
       </c>
       <c r="G40" t="n">
-        <v>-18797246.15787885</v>
+        <v>-1914985.174987716</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1862,22 +1896,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.5864</v>
+        <v>0.5819</v>
       </c>
       <c r="C41" t="n">
-        <v>0.5864</v>
+        <v>0.5868</v>
       </c>
       <c r="D41" t="n">
-        <v>0.5864</v>
+        <v>0.5868</v>
       </c>
       <c r="E41" t="n">
-        <v>0.5864</v>
+        <v>0.5819</v>
       </c>
       <c r="F41" t="n">
-        <v>6738.8316</v>
+        <v>85264.41090886162</v>
       </c>
       <c r="G41" t="n">
-        <v>-18790507.32627885</v>
+        <v>-1829720.764078854</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1898,22 +1932,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.5853</v>
+        <v>0.5803</v>
       </c>
       <c r="C42" t="n">
-        <v>0.5853</v>
+        <v>0.5803</v>
       </c>
       <c r="D42" t="n">
-        <v>0.5853</v>
+        <v>0.5803</v>
       </c>
       <c r="E42" t="n">
-        <v>0.5853</v>
+        <v>0.5803</v>
       </c>
       <c r="F42" t="n">
-        <v>2491560.4737</v>
+        <v>2170076.3997</v>
       </c>
       <c r="G42" t="n">
-        <v>-21282067.79997885</v>
+        <v>-3999797.163778854</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1934,31 +1968,35 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.5864</v>
+        <v>0.5868</v>
       </c>
       <c r="C43" t="n">
-        <v>0.5864</v>
+        <v>0.5868</v>
       </c>
       <c r="D43" t="n">
-        <v>0.5864</v>
+        <v>0.5868</v>
       </c>
       <c r="E43" t="n">
-        <v>0.5864</v>
+        <v>0.5868</v>
       </c>
       <c r="F43" t="n">
-        <v>838224.2603</v>
+        <v>866.3787</v>
       </c>
       <c r="G43" t="n">
-        <v>-20443843.53967885</v>
+        <v>-3998930.785078854</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0.5803</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.5803</v>
+      </c>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
@@ -1970,22 +2008,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.5864</v>
+        <v>0.5787</v>
       </c>
       <c r="C44" t="n">
-        <v>0.5864</v>
+        <v>0.5787</v>
       </c>
       <c r="D44" t="n">
-        <v>0.5864</v>
+        <v>0.5787</v>
       </c>
       <c r="E44" t="n">
-        <v>0.5864</v>
+        <v>0.5787</v>
       </c>
       <c r="F44" t="n">
-        <v>1.7397</v>
+        <v>651670.7661</v>
       </c>
       <c r="G44" t="n">
-        <v>-20443843.53967885</v>
+        <v>-4650601.551178854</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1994,8 +2032,14 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>0.5803</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2006,22 +2050,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.5821</v>
+        <v>0.5784</v>
       </c>
       <c r="C45" t="n">
-        <v>0.5821</v>
+        <v>0.5784</v>
       </c>
       <c r="D45" t="n">
-        <v>0.5821</v>
+        <v>0.5784</v>
       </c>
       <c r="E45" t="n">
-        <v>0.5821</v>
+        <v>0.5784</v>
       </c>
       <c r="F45" t="n">
-        <v>1232122.7356</v>
+        <v>2013500.1194</v>
       </c>
       <c r="G45" t="n">
-        <v>-21675966.27527885</v>
+        <v>-6664101.670578854</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2030,8 +2074,14 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>0.5803</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2042,22 +2092,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.5833</v>
+        <v>0.58</v>
       </c>
       <c r="C46" t="n">
-        <v>0.5833</v>
+        <v>0.58</v>
       </c>
       <c r="D46" t="n">
-        <v>0.5833</v>
+        <v>0.58</v>
       </c>
       <c r="E46" t="n">
-        <v>0.5833</v>
+        <v>0.58</v>
       </c>
       <c r="F46" t="n">
-        <v>2028206.5019</v>
+        <v>214750.877</v>
       </c>
       <c r="G46" t="n">
-        <v>-19647759.77337885</v>
+        <v>-6449350.793578854</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2078,22 +2128,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.5846</v>
+        <v>0.5795</v>
       </c>
       <c r="C47" t="n">
-        <v>0.5846</v>
+        <v>0.5795</v>
       </c>
       <c r="D47" t="n">
-        <v>0.5846</v>
+        <v>0.5795</v>
       </c>
       <c r="E47" t="n">
-        <v>0.5846</v>
+        <v>0.5795</v>
       </c>
       <c r="F47" t="n">
-        <v>1591913.2545</v>
+        <v>2260191.7259</v>
       </c>
       <c r="G47" t="n">
-        <v>-18055846.51887885</v>
+        <v>-8709542.519478854</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2114,22 +2164,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.5861</v>
+        <v>0.584</v>
       </c>
       <c r="C48" t="n">
-        <v>0.5861</v>
+        <v>0.584</v>
       </c>
       <c r="D48" t="n">
-        <v>0.5861</v>
+        <v>0.584</v>
       </c>
       <c r="E48" t="n">
-        <v>0.5861</v>
+        <v>0.584</v>
       </c>
       <c r="F48" t="n">
-        <v>1104582.8111</v>
+        <v>1869592.5481</v>
       </c>
       <c r="G48" t="n">
-        <v>-16951263.70777885</v>
+        <v>-6839949.971378854</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2150,22 +2200,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.5828</v>
+        <v>0.5790999999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>0.5828</v>
+        <v>0.5790999999999999</v>
       </c>
       <c r="D49" t="n">
-        <v>0.5828</v>
+        <v>0.5790999999999999</v>
       </c>
       <c r="E49" t="n">
-        <v>0.5828</v>
+        <v>0.5790999999999999</v>
       </c>
       <c r="F49" t="n">
-        <v>2039897.4556</v>
+        <v>1623173.8374</v>
       </c>
       <c r="G49" t="n">
-        <v>-18991161.16337885</v>
+        <v>-8463123.808778854</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2186,22 +2236,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.5839</v>
+        <v>0.5819</v>
       </c>
       <c r="C50" t="n">
-        <v>0.5839</v>
+        <v>0.5819</v>
       </c>
       <c r="D50" t="n">
-        <v>0.5839</v>
+        <v>0.5819</v>
       </c>
       <c r="E50" t="n">
-        <v>0.5839</v>
+        <v>0.5819</v>
       </c>
       <c r="F50" t="n">
-        <v>754981.1542</v>
+        <v>715564.3597</v>
       </c>
       <c r="G50" t="n">
-        <v>-18236180.00917885</v>
+        <v>-7747559.449078854</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2222,22 +2272,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.584</v>
+        <v>0.585</v>
       </c>
       <c r="C51" t="n">
-        <v>0.584</v>
+        <v>0.5868</v>
       </c>
       <c r="D51" t="n">
-        <v>0.584</v>
+        <v>0.5868</v>
       </c>
       <c r="E51" t="n">
-        <v>0.584</v>
+        <v>0.585</v>
       </c>
       <c r="F51" t="n">
-        <v>990177.6861</v>
+        <v>3351384.0231</v>
       </c>
       <c r="G51" t="n">
-        <v>-17246002.32307886</v>
+        <v>-4396175.425978854</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2258,22 +2308,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.5812</v>
+        <v>0.58</v>
       </c>
       <c r="C52" t="n">
-        <v>0.5812</v>
+        <v>0.58</v>
       </c>
       <c r="D52" t="n">
-        <v>0.5812</v>
+        <v>0.58</v>
       </c>
       <c r="E52" t="n">
-        <v>0.5812</v>
+        <v>0.58</v>
       </c>
       <c r="F52" t="n">
-        <v>2424471.1348</v>
+        <v>1342783.1894</v>
       </c>
       <c r="G52" t="n">
-        <v>-19670473.45787886</v>
+        <v>-5738958.615378855</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2294,22 +2344,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.5818</v>
+        <v>0.5831</v>
       </c>
       <c r="C53" t="n">
-        <v>0.5818</v>
+        <v>0.5831</v>
       </c>
       <c r="D53" t="n">
-        <v>0.5818</v>
+        <v>0.5831</v>
       </c>
       <c r="E53" t="n">
-        <v>0.5818</v>
+        <v>0.5831</v>
       </c>
       <c r="F53" t="n">
-        <v>2018664.0704</v>
+        <v>2304545.4366</v>
       </c>
       <c r="G53" t="n">
-        <v>-17651809.38747886</v>
+        <v>-3434413.178778855</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2330,22 +2380,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.5852000000000001</v>
+        <v>0.5828</v>
       </c>
       <c r="C54" t="n">
-        <v>0.5852000000000001</v>
+        <v>0.5828</v>
       </c>
       <c r="D54" t="n">
-        <v>0.5852000000000001</v>
+        <v>0.5828</v>
       </c>
       <c r="E54" t="n">
-        <v>0.5852000000000001</v>
+        <v>0.5828</v>
       </c>
       <c r="F54" t="n">
-        <v>1064961.0685</v>
+        <v>1940884.9539</v>
       </c>
       <c r="G54" t="n">
-        <v>-16586848.31897886</v>
+        <v>-5375298.132678855</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2366,22 +2416,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.5839</v>
+        <v>0.5800999999999999</v>
       </c>
       <c r="C55" t="n">
-        <v>0.5839</v>
+        <v>0.5773</v>
       </c>
       <c r="D55" t="n">
-        <v>0.5839</v>
+        <v>0.5800999999999999</v>
       </c>
       <c r="E55" t="n">
-        <v>0.5839</v>
+        <v>0.5773</v>
       </c>
       <c r="F55" t="n">
-        <v>1030752.4534</v>
+        <v>10000000</v>
       </c>
       <c r="G55" t="n">
-        <v>-17617600.77237886</v>
+        <v>-15375298.13267886</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2405,19 +2455,19 @@
         <v>0.5864</v>
       </c>
       <c r="C56" t="n">
-        <v>0.5864</v>
+        <v>0.5823</v>
       </c>
       <c r="D56" t="n">
         <v>0.5864</v>
       </c>
       <c r="E56" t="n">
-        <v>0.5864</v>
+        <v>0.5823</v>
       </c>
       <c r="F56" t="n">
-        <v>908.03</v>
+        <v>1127693.8623</v>
       </c>
       <c r="G56" t="n">
-        <v>-17616692.74237886</v>
+        <v>-14247604.27037886</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2438,22 +2488,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.5846</v>
+        <v>0.5864</v>
       </c>
       <c r="C57" t="n">
-        <v>0.5846</v>
+        <v>0.5864</v>
       </c>
       <c r="D57" t="n">
-        <v>0.5846</v>
+        <v>0.5864</v>
       </c>
       <c r="E57" t="n">
-        <v>0.5846</v>
+        <v>0.5864</v>
       </c>
       <c r="F57" t="n">
-        <v>747750.3792</v>
+        <v>864.071</v>
       </c>
       <c r="G57" t="n">
-        <v>-18364443.12157886</v>
+        <v>-14246740.19937886</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2474,22 +2524,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.5832000000000001</v>
+        <v>0.5774</v>
       </c>
       <c r="C58" t="n">
-        <v>0.5832000000000001</v>
+        <v>0.5774</v>
       </c>
       <c r="D58" t="n">
-        <v>0.5832000000000001</v>
+        <v>0.5774</v>
       </c>
       <c r="E58" t="n">
-        <v>0.5832000000000001</v>
+        <v>0.5774</v>
       </c>
       <c r="F58" t="n">
-        <v>1314377.5202</v>
+        <v>6184.5</v>
       </c>
       <c r="G58" t="n">
-        <v>-19678820.64177886</v>
+        <v>-14252924.69937886</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2510,35 +2560,31 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.5804</v>
+        <v>0.581</v>
       </c>
       <c r="C59" t="n">
-        <v>0.5804</v>
+        <v>0.581</v>
       </c>
       <c r="D59" t="n">
-        <v>0.5804</v>
+        <v>0.581</v>
       </c>
       <c r="E59" t="n">
-        <v>0.5804</v>
+        <v>0.581</v>
       </c>
       <c r="F59" t="n">
-        <v>1033893.303</v>
+        <v>1875174.7488</v>
       </c>
       <c r="G59" t="n">
-        <v>-20712713.94477886</v>
+        <v>-12377749.95057886</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0.5832000000000001</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.5832000000000001</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
@@ -2553,19 +2599,19 @@
         <v>0.5864</v>
       </c>
       <c r="C60" t="n">
-        <v>0.5868</v>
+        <v>0.5864</v>
       </c>
       <c r="D60" t="n">
-        <v>0.5868</v>
+        <v>0.5864</v>
       </c>
       <c r="E60" t="n">
         <v>0.5864</v>
       </c>
       <c r="F60" t="n">
-        <v>318316.4826911384</v>
+        <v>866.6362</v>
       </c>
       <c r="G60" t="n">
-        <v>-20394397.46208772</v>
+        <v>-12376883.31437886</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2574,14 +2620,8 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>0.5832000000000001</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2592,22 +2632,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.5891999999999999</v>
+        <v>0.5863</v>
       </c>
       <c r="C61" t="n">
-        <v>0.5891999999999999</v>
+        <v>0.5776</v>
       </c>
       <c r="D61" t="n">
-        <v>0.5891999999999999</v>
+        <v>0.5863</v>
       </c>
       <c r="E61" t="n">
-        <v>0.5891999999999999</v>
+        <v>0.5776</v>
       </c>
       <c r="F61" t="n">
-        <v>838839.9094</v>
+        <v>1867578.4253</v>
       </c>
       <c r="G61" t="n">
-        <v>-19555557.55268772</v>
+        <v>-14244461.73967886</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2616,14 +2656,8 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>0.5832000000000001</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2634,22 +2668,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.5868</v>
+        <v>0.5802</v>
       </c>
       <c r="C62" t="n">
-        <v>0.5868</v>
+        <v>0.5802</v>
       </c>
       <c r="D62" t="n">
-        <v>0.5868</v>
+        <v>0.5802</v>
       </c>
       <c r="E62" t="n">
-        <v>0.5868</v>
+        <v>0.5802</v>
       </c>
       <c r="F62" t="n">
-        <v>6738.8316</v>
+        <v>1493245.1311</v>
       </c>
       <c r="G62" t="n">
-        <v>-19562296.38428771</v>
+        <v>-12751216.60857886</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2670,22 +2704,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.5876</v>
+        <v>0.5864</v>
       </c>
       <c r="C63" t="n">
-        <v>0.5876</v>
+        <v>0.5864</v>
       </c>
       <c r="D63" t="n">
-        <v>0.5876</v>
+        <v>0.5864</v>
       </c>
       <c r="E63" t="n">
-        <v>0.5876</v>
+        <v>0.5864</v>
       </c>
       <c r="F63" t="n">
-        <v>1147218.634</v>
+        <v>877.7978000000001</v>
       </c>
       <c r="G63" t="n">
-        <v>-18415077.75028772</v>
+        <v>-12750338.81077885</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2706,22 +2740,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.5886</v>
+        <v>0.5786</v>
       </c>
       <c r="C64" t="n">
-        <v>0.5886</v>
+        <v>0.5786</v>
       </c>
       <c r="D64" t="n">
-        <v>0.5886</v>
+        <v>0.5786</v>
       </c>
       <c r="E64" t="n">
-        <v>0.5886</v>
+        <v>0.5786</v>
       </c>
       <c r="F64" t="n">
-        <v>1517900.4066</v>
+        <v>1687074.6809</v>
       </c>
       <c r="G64" t="n">
-        <v>-16897177.34368772</v>
+        <v>-14437413.49167885</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2742,22 +2776,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.5898</v>
+        <v>0.5864</v>
       </c>
       <c r="C65" t="n">
-        <v>0.5898</v>
+        <v>0.5864</v>
       </c>
       <c r="D65" t="n">
-        <v>0.5898</v>
+        <v>0.5864</v>
       </c>
       <c r="E65" t="n">
-        <v>0.5898</v>
+        <v>0.5864</v>
       </c>
       <c r="F65" t="n">
-        <v>1502544.0737</v>
+        <v>897.6127</v>
       </c>
       <c r="G65" t="n">
-        <v>-15394633.26998772</v>
+        <v>-14436515.87897885</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2778,22 +2812,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.587</v>
+        <v>0.5864</v>
       </c>
       <c r="C66" t="n">
-        <v>0.587</v>
+        <v>0.5864</v>
       </c>
       <c r="D66" t="n">
-        <v>0.587</v>
+        <v>0.5864</v>
       </c>
       <c r="E66" t="n">
-        <v>0.587</v>
+        <v>0.5864</v>
       </c>
       <c r="F66" t="n">
-        <v>569145.7461</v>
+        <v>1707.389</v>
       </c>
       <c r="G66" t="n">
-        <v>-15963779.01608772</v>
+        <v>-14436515.87897885</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2814,22 +2848,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.5886</v>
+        <v>0.584</v>
       </c>
       <c r="C67" t="n">
-        <v>0.5886</v>
+        <v>0.5864</v>
       </c>
       <c r="D67" t="n">
-        <v>0.5886</v>
+        <v>0.5864</v>
       </c>
       <c r="E67" t="n">
-        <v>0.5886</v>
+        <v>0.584</v>
       </c>
       <c r="F67" t="n">
-        <v>1920207.6782</v>
+        <v>2017791.0424</v>
       </c>
       <c r="G67" t="n">
-        <v>-14043571.33788772</v>
+        <v>-14436515.87897885</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2850,22 +2884,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.5873</v>
+        <v>0.5855</v>
       </c>
       <c r="C68" t="n">
-        <v>0.5873</v>
+        <v>0.5855</v>
       </c>
       <c r="D68" t="n">
-        <v>0.5873</v>
+        <v>0.5855</v>
       </c>
       <c r="E68" t="n">
-        <v>0.5873</v>
+        <v>0.5855</v>
       </c>
       <c r="F68" t="n">
-        <v>1970757.0211</v>
+        <v>2028863.296</v>
       </c>
       <c r="G68" t="n">
-        <v>-16014328.35898772</v>
+        <v>-16465379.17497885</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2886,22 +2920,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.5897</v>
+        <v>0.5785</v>
       </c>
       <c r="C69" t="n">
-        <v>0.5907</v>
+        <v>0.5785</v>
       </c>
       <c r="D69" t="n">
-        <v>0.5907</v>
+        <v>0.5785</v>
       </c>
       <c r="E69" t="n">
-        <v>0.5897</v>
+        <v>0.5785</v>
       </c>
       <c r="F69" t="n">
-        <v>1012784.5893</v>
+        <v>2331866.9829</v>
       </c>
       <c r="G69" t="n">
-        <v>-15001543.76968772</v>
+        <v>-18797246.15787885</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2922,22 +2956,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.5918</v>
+        <v>0.5864</v>
       </c>
       <c r="C70" t="n">
-        <v>0.5918</v>
+        <v>0.5864</v>
       </c>
       <c r="D70" t="n">
-        <v>0.5918</v>
+        <v>0.5864</v>
       </c>
       <c r="E70" t="n">
-        <v>0.5918</v>
+        <v>0.5864</v>
       </c>
       <c r="F70" t="n">
-        <v>776627.6494</v>
+        <v>6738.8316</v>
       </c>
       <c r="G70" t="n">
-        <v>-14224916.12028772</v>
+        <v>-18790507.32627885</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2958,22 +2992,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.5918</v>
+        <v>0.5853</v>
       </c>
       <c r="C71" t="n">
-        <v>0.5918</v>
+        <v>0.5853</v>
       </c>
       <c r="D71" t="n">
-        <v>0.5918</v>
+        <v>0.5853</v>
       </c>
       <c r="E71" t="n">
-        <v>0.5918</v>
+        <v>0.5853</v>
       </c>
       <c r="F71" t="n">
-        <v>2093122.7154</v>
+        <v>2491560.4737</v>
       </c>
       <c r="G71" t="n">
-        <v>-14224916.12028772</v>
+        <v>-21282067.79997885</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2994,22 +3028,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.5907</v>
+        <v>0.5864</v>
       </c>
       <c r="C72" t="n">
-        <v>0.5907</v>
+        <v>0.5864</v>
       </c>
       <c r="D72" t="n">
-        <v>0.5907</v>
+        <v>0.5864</v>
       </c>
       <c r="E72" t="n">
-        <v>0.5907</v>
+        <v>0.5864</v>
       </c>
       <c r="F72" t="n">
-        <v>2229.0725</v>
+        <v>838224.2603</v>
       </c>
       <c r="G72" t="n">
-        <v>-14227145.19278772</v>
+        <v>-20443843.53967885</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3030,22 +3064,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.5914</v>
+        <v>0.5864</v>
       </c>
       <c r="C73" t="n">
-        <v>0.5914</v>
+        <v>0.5864</v>
       </c>
       <c r="D73" t="n">
-        <v>0.5914</v>
+        <v>0.5864</v>
       </c>
       <c r="E73" t="n">
-        <v>0.5914</v>
+        <v>0.5864</v>
       </c>
       <c r="F73" t="n">
-        <v>1469995.5407</v>
+        <v>1.7397</v>
       </c>
       <c r="G73" t="n">
-        <v>-12757149.65208772</v>
+        <v>-20443843.53967885</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3066,22 +3100,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.5915</v>
+        <v>0.5821</v>
       </c>
       <c r="C74" t="n">
-        <v>0.5915</v>
+        <v>0.5821</v>
       </c>
       <c r="D74" t="n">
-        <v>0.5915</v>
+        <v>0.5821</v>
       </c>
       <c r="E74" t="n">
-        <v>0.5915</v>
+        <v>0.5821</v>
       </c>
       <c r="F74" t="n">
-        <v>1037892.4182</v>
+        <v>1232122.7356</v>
       </c>
       <c r="G74" t="n">
-        <v>-11719257.23388772</v>
+        <v>-21675966.27527885</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3102,22 +3136,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.5919</v>
+        <v>0.5833</v>
       </c>
       <c r="C75" t="n">
-        <v>0.5919</v>
+        <v>0.5833</v>
       </c>
       <c r="D75" t="n">
-        <v>0.5919</v>
+        <v>0.5833</v>
       </c>
       <c r="E75" t="n">
-        <v>0.5919</v>
+        <v>0.5833</v>
       </c>
       <c r="F75" t="n">
-        <v>84682.13649999999</v>
+        <v>2028206.5019</v>
       </c>
       <c r="G75" t="n">
-        <v>-11634575.09738772</v>
+        <v>-19647759.77337885</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3138,22 +3172,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.5918</v>
+        <v>0.5846</v>
       </c>
       <c r="C76" t="n">
-        <v>0.5918</v>
+        <v>0.5846</v>
       </c>
       <c r="D76" t="n">
-        <v>0.5918</v>
+        <v>0.5846</v>
       </c>
       <c r="E76" t="n">
-        <v>0.5918</v>
+        <v>0.5846</v>
       </c>
       <c r="F76" t="n">
-        <v>2382401.1299</v>
+        <v>1591913.2545</v>
       </c>
       <c r="G76" t="n">
-        <v>-14016976.22728772</v>
+        <v>-18055846.51887885</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3174,22 +3208,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.5908</v>
+        <v>0.5861</v>
       </c>
       <c r="C77" t="n">
-        <v>0.5908</v>
+        <v>0.5861</v>
       </c>
       <c r="D77" t="n">
-        <v>0.5908</v>
+        <v>0.5861</v>
       </c>
       <c r="E77" t="n">
-        <v>0.5908</v>
+        <v>0.5861</v>
       </c>
       <c r="F77" t="n">
-        <v>2023946.8404</v>
+        <v>1104582.8111</v>
       </c>
       <c r="G77" t="n">
-        <v>-16040923.06768772</v>
+        <v>-16951263.70777885</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3210,22 +3244,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.5915</v>
+        <v>0.5828</v>
       </c>
       <c r="C78" t="n">
-        <v>0.5915</v>
+        <v>0.5828</v>
       </c>
       <c r="D78" t="n">
-        <v>0.5915</v>
+        <v>0.5828</v>
       </c>
       <c r="E78" t="n">
-        <v>0.5915</v>
+        <v>0.5828</v>
       </c>
       <c r="F78" t="n">
-        <v>1067881.7372</v>
+        <v>2039897.4556</v>
       </c>
       <c r="G78" t="n">
-        <v>-14973041.33048772</v>
+        <v>-18991161.16337885</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3246,22 +3280,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.5919</v>
+        <v>0.5839</v>
       </c>
       <c r="C79" t="n">
-        <v>0.5919</v>
+        <v>0.5839</v>
       </c>
       <c r="D79" t="n">
-        <v>0.5919</v>
+        <v>0.5839</v>
       </c>
       <c r="E79" t="n">
-        <v>0.5919</v>
+        <v>0.5839</v>
       </c>
       <c r="F79" t="n">
-        <v>1690.6171</v>
+        <v>754981.1542</v>
       </c>
       <c r="G79" t="n">
-        <v>-14971350.71338772</v>
+        <v>-18236180.00917885</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3282,22 +3316,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.5907</v>
+        <v>0.584</v>
       </c>
       <c r="C80" t="n">
-        <v>0.5907</v>
+        <v>0.584</v>
       </c>
       <c r="D80" t="n">
-        <v>0.5907</v>
+        <v>0.584</v>
       </c>
       <c r="E80" t="n">
-        <v>0.5907</v>
+        <v>0.584</v>
       </c>
       <c r="F80" t="n">
-        <v>245439.3538</v>
+        <v>990177.6861</v>
       </c>
       <c r="G80" t="n">
-        <v>-15216790.06718772</v>
+        <v>-17246002.32307886</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3318,22 +3352,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.59</v>
+        <v>0.5812</v>
       </c>
       <c r="C81" t="n">
-        <v>0.5911</v>
+        <v>0.5812</v>
       </c>
       <c r="D81" t="n">
-        <v>0.5911</v>
+        <v>0.5812</v>
       </c>
       <c r="E81" t="n">
-        <v>0.59</v>
+        <v>0.5812</v>
       </c>
       <c r="F81" t="n">
-        <v>1534763.1514</v>
+        <v>2424471.1348</v>
       </c>
       <c r="G81" t="n">
-        <v>-13682026.91578772</v>
+        <v>-19670473.45787886</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3354,22 +3388,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.5911</v>
+        <v>0.5818</v>
       </c>
       <c r="C82" t="n">
-        <v>0.5911</v>
+        <v>0.5818</v>
       </c>
       <c r="D82" t="n">
-        <v>0.5911</v>
+        <v>0.5818</v>
       </c>
       <c r="E82" t="n">
-        <v>0.5911</v>
+        <v>0.5818</v>
       </c>
       <c r="F82" t="n">
-        <v>3454.2419</v>
+        <v>2018664.0704</v>
       </c>
       <c r="G82" t="n">
-        <v>-13682026.91578772</v>
+        <v>-17651809.38747886</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3390,22 +3424,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.5911</v>
+        <v>0.5852000000000001</v>
       </c>
       <c r="C83" t="n">
-        <v>0.5911</v>
+        <v>0.5852000000000001</v>
       </c>
       <c r="D83" t="n">
-        <v>0.5911</v>
+        <v>0.5852000000000001</v>
       </c>
       <c r="E83" t="n">
-        <v>0.5911</v>
+        <v>0.5852000000000001</v>
       </c>
       <c r="F83" t="n">
-        <v>1730.1039</v>
+        <v>1064961.0685</v>
       </c>
       <c r="G83" t="n">
-        <v>-13682026.91578772</v>
+        <v>-16586848.31897886</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3426,22 +3460,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.5898</v>
+        <v>0.5839</v>
       </c>
       <c r="C84" t="n">
-        <v>0.5898</v>
+        <v>0.5839</v>
       </c>
       <c r="D84" t="n">
-        <v>0.5898</v>
+        <v>0.5839</v>
       </c>
       <c r="E84" t="n">
-        <v>0.5898</v>
+        <v>0.5839</v>
       </c>
       <c r="F84" t="n">
-        <v>1062850.5041</v>
+        <v>1030752.4534</v>
       </c>
       <c r="G84" t="n">
-        <v>-14744877.41988772</v>
+        <v>-17617600.77237886</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3462,22 +3496,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.5889</v>
+        <v>0.5864</v>
       </c>
       <c r="C85" t="n">
-        <v>0.5889</v>
+        <v>0.5864</v>
       </c>
       <c r="D85" t="n">
-        <v>0.5889</v>
+        <v>0.5864</v>
       </c>
       <c r="E85" t="n">
-        <v>0.5889</v>
+        <v>0.5864</v>
       </c>
       <c r="F85" t="n">
-        <v>847075.5494</v>
+        <v>908.03</v>
       </c>
       <c r="G85" t="n">
-        <v>-15591952.96928772</v>
+        <v>-17616692.74237886</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3498,22 +3532,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.5897</v>
+        <v>0.5846</v>
       </c>
       <c r="C86" t="n">
-        <v>0.5897</v>
+        <v>0.5846</v>
       </c>
       <c r="D86" t="n">
-        <v>0.5897</v>
+        <v>0.5846</v>
       </c>
       <c r="E86" t="n">
-        <v>0.5897</v>
+        <v>0.5846</v>
       </c>
       <c r="F86" t="n">
-        <v>2311439.9205</v>
+        <v>747750.3792</v>
       </c>
       <c r="G86" t="n">
-        <v>-13280513.04878772</v>
+        <v>-18364443.12157886</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3534,22 +3568,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.5881</v>
+        <v>0.5832000000000001</v>
       </c>
       <c r="C87" t="n">
-        <v>0.5911</v>
+        <v>0.5832000000000001</v>
       </c>
       <c r="D87" t="n">
-        <v>0.5911</v>
+        <v>0.5832000000000001</v>
       </c>
       <c r="E87" t="n">
-        <v>0.5881</v>
+        <v>0.5832000000000001</v>
       </c>
       <c r="F87" t="n">
-        <v>1531021.3137</v>
+        <v>1314377.5202</v>
       </c>
       <c r="G87" t="n">
-        <v>-11749491.73508772</v>
+        <v>-19678820.64177886</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3570,22 +3604,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.5869</v>
+        <v>0.5804</v>
       </c>
       <c r="C88" t="n">
-        <v>0.5869</v>
+        <v>0.5804</v>
       </c>
       <c r="D88" t="n">
-        <v>0.5869</v>
+        <v>0.5804</v>
       </c>
       <c r="E88" t="n">
-        <v>0.5869</v>
+        <v>0.5804</v>
       </c>
       <c r="F88" t="n">
-        <v>2242189.4389</v>
+        <v>1033893.303</v>
       </c>
       <c r="G88" t="n">
-        <v>-13991681.17398772</v>
+        <v>-20712713.94477886</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3606,22 +3640,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.5911</v>
+        <v>0.5864</v>
       </c>
       <c r="C89" t="n">
-        <v>0.5911</v>
+        <v>0.5868</v>
       </c>
       <c r="D89" t="n">
-        <v>0.5911</v>
+        <v>0.5868</v>
       </c>
       <c r="E89" t="n">
-        <v>0.5911</v>
+        <v>0.5864</v>
       </c>
       <c r="F89" t="n">
-        <v>1703.8678</v>
+        <v>318316.4826911384</v>
       </c>
       <c r="G89" t="n">
-        <v>-13989977.30618772</v>
+        <v>-20394397.46208772</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3642,22 +3676,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.5911</v>
+        <v>0.5891999999999999</v>
       </c>
       <c r="C90" t="n">
-        <v>0.5911</v>
+        <v>0.5891999999999999</v>
       </c>
       <c r="D90" t="n">
-        <v>0.5911</v>
+        <v>0.5891999999999999</v>
       </c>
       <c r="E90" t="n">
-        <v>0.5911</v>
+        <v>0.5891999999999999</v>
       </c>
       <c r="F90" t="n">
-        <v>1730.1039</v>
+        <v>838839.9094</v>
       </c>
       <c r="G90" t="n">
-        <v>-13989977.30618772</v>
+        <v>-19555557.55268772</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3678,28 +3712,28 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.591</v>
+        <v>0.5868</v>
       </c>
       <c r="C91" t="n">
-        <v>0.591</v>
+        <v>0.5868</v>
       </c>
       <c r="D91" t="n">
-        <v>0.591</v>
+        <v>0.5868</v>
       </c>
       <c r="E91" t="n">
-        <v>0.591</v>
+        <v>0.5868</v>
       </c>
       <c r="F91" t="n">
-        <v>1421415.6941</v>
+        <v>6738.8316</v>
       </c>
       <c r="G91" t="n">
-        <v>-15411393.00028772</v>
+        <v>-19562296.38428771</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
@@ -3714,28 +3748,28 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.5868</v>
+        <v>0.5876</v>
       </c>
       <c r="C92" t="n">
-        <v>0.5868</v>
+        <v>0.5876</v>
       </c>
       <c r="D92" t="n">
-        <v>0.5868</v>
+        <v>0.5876</v>
       </c>
       <c r="E92" t="n">
-        <v>0.5868</v>
+        <v>0.5876</v>
       </c>
       <c r="F92" t="n">
-        <v>1763.6685</v>
+        <v>1147218.634</v>
       </c>
       <c r="G92" t="n">
-        <v>-15413156.66878772</v>
+        <v>-18415077.75028772</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
@@ -3750,22 +3784,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.5868</v>
+        <v>0.5886</v>
       </c>
       <c r="C93" t="n">
-        <v>0.5868</v>
+        <v>0.5886</v>
       </c>
       <c r="D93" t="n">
-        <v>0.5868</v>
+        <v>0.5886</v>
       </c>
       <c r="E93" t="n">
-        <v>0.5868</v>
+        <v>0.5886</v>
       </c>
       <c r="F93" t="n">
-        <v>1704.1582</v>
+        <v>1517900.4066</v>
       </c>
       <c r="G93" t="n">
-        <v>-15413156.66878772</v>
+        <v>-16897177.34368772</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3786,22 +3820,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.5872000000000001</v>
+        <v>0.5898</v>
       </c>
       <c r="C94" t="n">
-        <v>0.5872000000000001</v>
+        <v>0.5898</v>
       </c>
       <c r="D94" t="n">
-        <v>0.5872000000000001</v>
+        <v>0.5898</v>
       </c>
       <c r="E94" t="n">
-        <v>0.5872000000000001</v>
+        <v>0.5898</v>
       </c>
       <c r="F94" t="n">
-        <v>1037911.9714</v>
+        <v>1502544.0737</v>
       </c>
       <c r="G94" t="n">
-        <v>-14375244.69738772</v>
+        <v>-15394633.26998772</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3822,22 +3856,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.5886</v>
+        <v>0.587</v>
       </c>
       <c r="C95" t="n">
-        <v>0.5886</v>
+        <v>0.587</v>
       </c>
       <c r="D95" t="n">
-        <v>0.5886</v>
+        <v>0.587</v>
       </c>
       <c r="E95" t="n">
-        <v>0.5886</v>
+        <v>0.587</v>
       </c>
       <c r="F95" t="n">
-        <v>2324875.1763</v>
+        <v>569145.7461</v>
       </c>
       <c r="G95" t="n">
-        <v>-12050369.52108772</v>
+        <v>-15963779.01608772</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3858,22 +3892,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.5872000000000001</v>
+        <v>0.5886</v>
       </c>
       <c r="C96" t="n">
-        <v>0.5885</v>
+        <v>0.5886</v>
       </c>
       <c r="D96" t="n">
-        <v>0.5885</v>
+        <v>0.5886</v>
       </c>
       <c r="E96" t="n">
-        <v>0.5872000000000001</v>
+        <v>0.5886</v>
       </c>
       <c r="F96" t="n">
-        <v>594754.7536000001</v>
+        <v>1920207.6782</v>
       </c>
       <c r="G96" t="n">
-        <v>-12645124.27468772</v>
+        <v>-14043571.33788772</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3894,22 +3928,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.59</v>
+        <v>0.5873</v>
       </c>
       <c r="C97" t="n">
-        <v>0.5898</v>
+        <v>0.5873</v>
       </c>
       <c r="D97" t="n">
-        <v>0.59</v>
+        <v>0.5873</v>
       </c>
       <c r="E97" t="n">
-        <v>0.5898</v>
+        <v>0.5873</v>
       </c>
       <c r="F97" t="n">
-        <v>2143830.542</v>
+        <v>1970757.0211</v>
       </c>
       <c r="G97" t="n">
-        <v>-10501293.73268772</v>
+        <v>-16014328.35898772</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3930,28 +3964,28 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.5904</v>
+        <v>0.5897</v>
       </c>
       <c r="C98" t="n">
-        <v>0.5904</v>
+        <v>0.5907</v>
       </c>
       <c r="D98" t="n">
-        <v>0.5904</v>
+        <v>0.5907</v>
       </c>
       <c r="E98" t="n">
-        <v>0.5904</v>
+        <v>0.5897</v>
       </c>
       <c r="F98" t="n">
-        <v>1625650.376</v>
+        <v>1012784.5893</v>
       </c>
       <c r="G98" t="n">
-        <v>-8875643.356687717</v>
+        <v>-15001543.76968772</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
@@ -3966,28 +4000,28 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.5905</v>
+        <v>0.5918</v>
       </c>
       <c r="C99" t="n">
-        <v>0.5905</v>
+        <v>0.5918</v>
       </c>
       <c r="D99" t="n">
-        <v>0.5905</v>
+        <v>0.5918</v>
       </c>
       <c r="E99" t="n">
-        <v>0.5905</v>
+        <v>0.5918</v>
       </c>
       <c r="F99" t="n">
-        <v>971303.4994</v>
+        <v>776627.6494</v>
       </c>
       <c r="G99" t="n">
-        <v>-7904339.857287717</v>
+        <v>-14224916.12028772</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
@@ -4002,28 +4036,28 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.5911</v>
+        <v>0.5918</v>
       </c>
       <c r="C100" t="n">
-        <v>0.5911</v>
+        <v>0.5918</v>
       </c>
       <c r="D100" t="n">
-        <v>0.5911</v>
+        <v>0.5918</v>
       </c>
       <c r="E100" t="n">
-        <v>0.5911</v>
+        <v>0.5918</v>
       </c>
       <c r="F100" t="n">
-        <v>1134.9987</v>
+        <v>2093122.7154</v>
       </c>
       <c r="G100" t="n">
-        <v>-7903204.858587717</v>
+        <v>-14224916.12028772</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
@@ -4050,16 +4084,16 @@
         <v>0.5907</v>
       </c>
       <c r="F101" t="n">
-        <v>2087889.9068</v>
+        <v>2229.0725</v>
       </c>
       <c r="G101" t="n">
-        <v>-9991094.765387718</v>
+        <v>-14227145.19278772</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
@@ -4074,28 +4108,28 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>0.5899</v>
+        <v>0.5914</v>
       </c>
       <c r="C102" t="n">
-        <v>0.5899</v>
+        <v>0.5914</v>
       </c>
       <c r="D102" t="n">
-        <v>0.5899</v>
+        <v>0.5914</v>
       </c>
       <c r="E102" t="n">
-        <v>0.5899</v>
+        <v>0.5914</v>
       </c>
       <c r="F102" t="n">
-        <v>1043146.876</v>
+        <v>1469995.5407</v>
       </c>
       <c r="G102" t="n">
-        <v>-11034241.64138772</v>
+        <v>-12757149.65208772</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
@@ -4110,28 +4144,28 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>0.5898</v>
+        <v>0.5915</v>
       </c>
       <c r="C103" t="n">
-        <v>0.5898</v>
+        <v>0.5915</v>
       </c>
       <c r="D103" t="n">
-        <v>0.5898</v>
+        <v>0.5915</v>
       </c>
       <c r="E103" t="n">
-        <v>0.5898</v>
+        <v>0.5915</v>
       </c>
       <c r="F103" t="n">
-        <v>45850.9803</v>
+        <v>1037892.4182</v>
       </c>
       <c r="G103" t="n">
-        <v>-11080092.62168772</v>
+        <v>-11719257.23388772</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
@@ -4146,28 +4180,28 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>0.5898</v>
+        <v>0.5919</v>
       </c>
       <c r="C104" t="n">
-        <v>0.5909</v>
+        <v>0.5919</v>
       </c>
       <c r="D104" t="n">
-        <v>0.5909</v>
+        <v>0.5919</v>
       </c>
       <c r="E104" t="n">
-        <v>0.5898</v>
+        <v>0.5919</v>
       </c>
       <c r="F104" t="n">
-        <v>1281577.4573</v>
+        <v>84682.13649999999</v>
       </c>
       <c r="G104" t="n">
-        <v>-9798515.164387718</v>
+        <v>-11634575.09738772</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
@@ -4182,28 +4216,28 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>0.5881999999999999</v>
+        <v>0.5918</v>
       </c>
       <c r="C105" t="n">
-        <v>0.5881999999999999</v>
+        <v>0.5918</v>
       </c>
       <c r="D105" t="n">
-        <v>0.5881999999999999</v>
+        <v>0.5918</v>
       </c>
       <c r="E105" t="n">
-        <v>0.5881999999999999</v>
+        <v>0.5918</v>
       </c>
       <c r="F105" t="n">
-        <v>1672872.8705</v>
+        <v>2382401.1299</v>
       </c>
       <c r="G105" t="n">
-        <v>-11471388.03488772</v>
+        <v>-14016976.22728772</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
@@ -4218,28 +4252,28 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>0.5877</v>
+        <v>0.5908</v>
       </c>
       <c r="C106" t="n">
-        <v>0.5877</v>
+        <v>0.5908</v>
       </c>
       <c r="D106" t="n">
-        <v>0.5877</v>
+        <v>0.5908</v>
       </c>
       <c r="E106" t="n">
-        <v>0.5877</v>
+        <v>0.5908</v>
       </c>
       <c r="F106" t="n">
-        <v>1028007.5893</v>
+        <v>2023946.8404</v>
       </c>
       <c r="G106" t="n">
-        <v>-12499395.62418772</v>
+        <v>-16040923.06768772</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
@@ -4254,22 +4288,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>0.5909</v>
+        <v>0.5915</v>
       </c>
       <c r="C107" t="n">
-        <v>0.5868</v>
+        <v>0.5915</v>
       </c>
       <c r="D107" t="n">
-        <v>0.5909</v>
+        <v>0.5915</v>
       </c>
       <c r="E107" t="n">
-        <v>0.5868</v>
+        <v>0.5915</v>
       </c>
       <c r="F107" t="n">
-        <v>24199.8931</v>
+        <v>1067881.7372</v>
       </c>
       <c r="G107" t="n">
-        <v>-12523595.51728772</v>
+        <v>-14973041.33048772</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4290,22 +4324,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>0.5888</v>
+        <v>0.5919</v>
       </c>
       <c r="C108" t="n">
-        <v>0.5888</v>
+        <v>0.5919</v>
       </c>
       <c r="D108" t="n">
-        <v>0.5888</v>
+        <v>0.5919</v>
       </c>
       <c r="E108" t="n">
-        <v>0.5888</v>
+        <v>0.5919</v>
       </c>
       <c r="F108" t="n">
-        <v>756490.8258</v>
+        <v>1690.6171</v>
       </c>
       <c r="G108" t="n">
-        <v>-11767104.69148772</v>
+        <v>-14971350.71338772</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4326,22 +4360,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>0.5903</v>
+        <v>0.5907</v>
       </c>
       <c r="C109" t="n">
-        <v>0.5903</v>
+        <v>0.5907</v>
       </c>
       <c r="D109" t="n">
-        <v>0.5903</v>
+        <v>0.5907</v>
       </c>
       <c r="E109" t="n">
-        <v>0.5903</v>
+        <v>0.5907</v>
       </c>
       <c r="F109" t="n">
-        <v>1592733.0469</v>
+        <v>245439.3538</v>
       </c>
       <c r="G109" t="n">
-        <v>-10174371.64458772</v>
+        <v>-15216790.06718772</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4362,28 +4396,28 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>0.5895</v>
+        <v>0.59</v>
       </c>
       <c r="C110" t="n">
-        <v>0.5895</v>
+        <v>0.5911</v>
       </c>
       <c r="D110" t="n">
-        <v>0.5895</v>
+        <v>0.5911</v>
       </c>
       <c r="E110" t="n">
-        <v>0.5895</v>
+        <v>0.59</v>
       </c>
       <c r="F110" t="n">
-        <v>1901435.2818</v>
+        <v>1534763.1514</v>
       </c>
       <c r="G110" t="n">
-        <v>-12075806.92638772</v>
+        <v>-13682026.91578772</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
@@ -4398,28 +4432,28 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>0.5869</v>
+        <v>0.5911</v>
       </c>
       <c r="C111" t="n">
-        <v>0.5869</v>
+        <v>0.5911</v>
       </c>
       <c r="D111" t="n">
-        <v>0.5869</v>
+        <v>0.5911</v>
       </c>
       <c r="E111" t="n">
-        <v>0.5869</v>
+        <v>0.5911</v>
       </c>
       <c r="F111" t="n">
-        <v>2389700.0104</v>
+        <v>3454.2419</v>
       </c>
       <c r="G111" t="n">
-        <v>-14465506.93678772</v>
+        <v>-13682026.91578772</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
@@ -4434,22 +4468,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>0.5876</v>
+        <v>0.5911</v>
       </c>
       <c r="C112" t="n">
-        <v>0.5876</v>
+        <v>0.5911</v>
       </c>
       <c r="D112" t="n">
-        <v>0.5876</v>
+        <v>0.5911</v>
       </c>
       <c r="E112" t="n">
-        <v>0.5876</v>
+        <v>0.5911</v>
       </c>
       <c r="F112" t="n">
-        <v>610730.4722</v>
+        <v>1730.1039</v>
       </c>
       <c r="G112" t="n">
-        <v>-13854776.46458772</v>
+        <v>-13682026.91578772</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4470,22 +4504,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>0.5907</v>
+        <v>0.5898</v>
       </c>
       <c r="C113" t="n">
-        <v>0.5907</v>
+        <v>0.5898</v>
       </c>
       <c r="D113" t="n">
-        <v>0.5907</v>
+        <v>0.5898</v>
       </c>
       <c r="E113" t="n">
-        <v>0.5907</v>
+        <v>0.5898</v>
       </c>
       <c r="F113" t="n">
-        <v>2396129.5412</v>
+        <v>1062850.5041</v>
       </c>
       <c r="G113" t="n">
-        <v>-11458646.92338772</v>
+        <v>-14744877.41988772</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4506,28 +4540,28 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>0.5894</v>
+        <v>0.5889</v>
       </c>
       <c r="C114" t="n">
-        <v>0.5894</v>
+        <v>0.5889</v>
       </c>
       <c r="D114" t="n">
-        <v>0.5894</v>
+        <v>0.5889</v>
       </c>
       <c r="E114" t="n">
-        <v>0.5894</v>
+        <v>0.5889</v>
       </c>
       <c r="F114" t="n">
-        <v>1820805.939</v>
+        <v>847075.5494</v>
       </c>
       <c r="G114" t="n">
-        <v>-13279452.86238772</v>
+        <v>-15591952.96928772</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
@@ -4542,28 +4576,28 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>0.588</v>
+        <v>0.5897</v>
       </c>
       <c r="C115" t="n">
-        <v>0.588</v>
+        <v>0.5897</v>
       </c>
       <c r="D115" t="n">
-        <v>0.588</v>
+        <v>0.5897</v>
       </c>
       <c r="E115" t="n">
-        <v>0.588</v>
+        <v>0.5897</v>
       </c>
       <c r="F115" t="n">
-        <v>2670298.5195</v>
+        <v>2311439.9205</v>
       </c>
       <c r="G115" t="n">
-        <v>-15949751.38188772</v>
+        <v>-13280513.04878772</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
@@ -4578,22 +4612,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>0.5909</v>
+        <v>0.5881</v>
       </c>
       <c r="C116" t="n">
-        <v>0.5909</v>
+        <v>0.5911</v>
       </c>
       <c r="D116" t="n">
-        <v>0.5909</v>
+        <v>0.5911</v>
       </c>
       <c r="E116" t="n">
-        <v>0.5909</v>
+        <v>0.5881</v>
       </c>
       <c r="F116" t="n">
-        <v>21871.9509</v>
+        <v>1531021.3137</v>
       </c>
       <c r="G116" t="n">
-        <v>-15927879.43098772</v>
+        <v>-11749491.73508772</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4614,28 +4648,28 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>0.591</v>
+        <v>0.5869</v>
       </c>
       <c r="C117" t="n">
-        <v>0.591</v>
+        <v>0.5869</v>
       </c>
       <c r="D117" t="n">
-        <v>0.591</v>
+        <v>0.5869</v>
       </c>
       <c r="E117" t="n">
-        <v>0.591</v>
+        <v>0.5869</v>
       </c>
       <c r="F117" t="n">
-        <v>2674828.7635</v>
+        <v>2242189.4389</v>
       </c>
       <c r="G117" t="n">
-        <v>-13253050.66748772</v>
+        <v>-13991681.17398772</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
@@ -4650,28 +4684,28 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>0.591</v>
+        <v>0.5911</v>
       </c>
       <c r="C118" t="n">
-        <v>0.591</v>
+        <v>0.5911</v>
       </c>
       <c r="D118" t="n">
-        <v>0.591</v>
+        <v>0.5911</v>
       </c>
       <c r="E118" t="n">
-        <v>0.591</v>
+        <v>0.5911</v>
       </c>
       <c r="F118" t="n">
-        <v>1930355.7059</v>
+        <v>1703.8678</v>
       </c>
       <c r="G118" t="n">
-        <v>-13253050.66748772</v>
+        <v>-13989977.30618772</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
@@ -4686,28 +4720,28 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>0.5909</v>
+        <v>0.5911</v>
       </c>
       <c r="C119" t="n">
-        <v>0.591</v>
+        <v>0.5911</v>
       </c>
       <c r="D119" t="n">
-        <v>0.591</v>
+        <v>0.5911</v>
       </c>
       <c r="E119" t="n">
-        <v>0.5909</v>
+        <v>0.5911</v>
       </c>
       <c r="F119" t="n">
-        <v>807760.5394</v>
+        <v>1730.1039</v>
       </c>
       <c r="G119" t="n">
-        <v>-13253050.66748772</v>
+        <v>-13989977.30618772</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
@@ -4734,16 +4768,16 @@
         <v>0.591</v>
       </c>
       <c r="F120" t="n">
-        <v>2504170.3708</v>
+        <v>1421415.6941</v>
       </c>
       <c r="G120" t="n">
-        <v>-13253050.66748772</v>
+        <v>-15411393.00028772</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
@@ -4758,28 +4792,28 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>0.5909</v>
+        <v>0.5868</v>
       </c>
       <c r="C121" t="n">
-        <v>0.5909</v>
+        <v>0.5868</v>
       </c>
       <c r="D121" t="n">
-        <v>0.5909</v>
+        <v>0.5868</v>
       </c>
       <c r="E121" t="n">
-        <v>0.5909</v>
+        <v>0.5868</v>
       </c>
       <c r="F121" t="n">
-        <v>16550.811</v>
+        <v>1763.6685</v>
       </c>
       <c r="G121" t="n">
-        <v>-13269601.47848772</v>
+        <v>-15413156.66878772</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
@@ -4794,28 +4828,28 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>0.591</v>
+        <v>0.5868</v>
       </c>
       <c r="C122" t="n">
-        <v>0.591</v>
+        <v>0.5868</v>
       </c>
       <c r="D122" t="n">
-        <v>0.591</v>
+        <v>0.5868</v>
       </c>
       <c r="E122" t="n">
-        <v>0.591</v>
+        <v>0.5868</v>
       </c>
       <c r="F122" t="n">
-        <v>659527.0281</v>
+        <v>1704.1582</v>
       </c>
       <c r="G122" t="n">
-        <v>-12610074.45038772</v>
+        <v>-15413156.66878772</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
@@ -4830,28 +4864,28 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>0.591</v>
+        <v>0.5872000000000001</v>
       </c>
       <c r="C123" t="n">
-        <v>0.591</v>
+        <v>0.5872000000000001</v>
       </c>
       <c r="D123" t="n">
-        <v>0.591</v>
+        <v>0.5872000000000001</v>
       </c>
       <c r="E123" t="n">
-        <v>0.591</v>
+        <v>0.5872000000000001</v>
       </c>
       <c r="F123" t="n">
-        <v>1953666.8565</v>
+        <v>1037911.9714</v>
       </c>
       <c r="G123" t="n">
-        <v>-12610074.45038772</v>
+        <v>-14375244.69738772</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
@@ -4866,28 +4900,28 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>0.591</v>
+        <v>0.5886</v>
       </c>
       <c r="C124" t="n">
-        <v>0.591</v>
+        <v>0.5886</v>
       </c>
       <c r="D124" t="n">
-        <v>0.591</v>
+        <v>0.5886</v>
       </c>
       <c r="E124" t="n">
-        <v>0.591</v>
+        <v>0.5886</v>
       </c>
       <c r="F124" t="n">
-        <v>995256.8399</v>
+        <v>2324875.1763</v>
       </c>
       <c r="G124" t="n">
-        <v>-12610074.45038772</v>
+        <v>-12050369.52108772</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
@@ -4902,28 +4936,28 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>0.591</v>
+        <v>0.5872000000000001</v>
       </c>
       <c r="C125" t="n">
-        <v>0.591</v>
+        <v>0.5885</v>
       </c>
       <c r="D125" t="n">
-        <v>0.591</v>
+        <v>0.5885</v>
       </c>
       <c r="E125" t="n">
-        <v>0.591</v>
+        <v>0.5872000000000001</v>
       </c>
       <c r="F125" t="n">
-        <v>1823151.9284</v>
+        <v>594754.7536000001</v>
       </c>
       <c r="G125" t="n">
-        <v>-12610074.45038772</v>
+        <v>-12645124.27468772</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
@@ -4938,31 +4972,35 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>0.5909</v>
+        <v>0.59</v>
       </c>
       <c r="C126" t="n">
-        <v>0.5909</v>
+        <v>0.5898</v>
       </c>
       <c r="D126" t="n">
-        <v>0.5909</v>
+        <v>0.59</v>
       </c>
       <c r="E126" t="n">
-        <v>0.5909</v>
+        <v>0.5898</v>
       </c>
       <c r="F126" t="n">
-        <v>769155</v>
+        <v>2143830.542</v>
       </c>
       <c r="G126" t="n">
-        <v>-13379229.45038772</v>
+        <v>-10501293.73268772</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
-        <v>1</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0.5885</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0.5885</v>
+      </c>
       <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
@@ -4974,32 +5012,38 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>0.5909</v>
+        <v>0.5904</v>
       </c>
       <c r="C127" t="n">
-        <v>0.59</v>
+        <v>0.5904</v>
       </c>
       <c r="D127" t="n">
-        <v>0.5909</v>
+        <v>0.5904</v>
       </c>
       <c r="E127" t="n">
-        <v>0.59</v>
+        <v>0.5904</v>
       </c>
       <c r="F127" t="n">
-        <v>127000</v>
+        <v>1625650.376</v>
       </c>
       <c r="G127" t="n">
-        <v>-13506229.45038772</v>
+        <v>-8875643.356687717</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>0.5885</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5010,22 +5054,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>0.591</v>
+        <v>0.5905</v>
       </c>
       <c r="C128" t="n">
-        <v>0.591</v>
+        <v>0.5905</v>
       </c>
       <c r="D128" t="n">
-        <v>0.591</v>
+        <v>0.5905</v>
       </c>
       <c r="E128" t="n">
-        <v>0.591</v>
+        <v>0.5905</v>
       </c>
       <c r="F128" t="n">
-        <v>2951902.8928</v>
+        <v>971303.4994</v>
       </c>
       <c r="G128" t="n">
-        <v>-10554326.55758772</v>
+        <v>-7904339.857287717</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5034,8 +5078,14 @@
         <v>1</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>0.5885</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5046,22 +5096,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>0.591</v>
+        <v>0.5911</v>
       </c>
       <c r="C129" t="n">
-        <v>0.591</v>
+        <v>0.5911</v>
       </c>
       <c r="D129" t="n">
-        <v>0.591</v>
+        <v>0.5911</v>
       </c>
       <c r="E129" t="n">
-        <v>0.591</v>
+        <v>0.5911</v>
       </c>
       <c r="F129" t="n">
-        <v>2789871.5031</v>
+        <v>1134.9987</v>
       </c>
       <c r="G129" t="n">
-        <v>-10554326.55758772</v>
+        <v>-7903204.858587717</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5082,22 +5132,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>0.5903</v>
+        <v>0.5907</v>
       </c>
       <c r="C130" t="n">
-        <v>0.5903</v>
+        <v>0.5907</v>
       </c>
       <c r="D130" t="n">
-        <v>0.5903</v>
+        <v>0.5907</v>
       </c>
       <c r="E130" t="n">
-        <v>0.5903</v>
+        <v>0.5907</v>
       </c>
       <c r="F130" t="n">
-        <v>1736616.3084</v>
+        <v>2087889.9068</v>
       </c>
       <c r="G130" t="n">
-        <v>-12290942.86598772</v>
+        <v>-9991094.765387718</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5118,22 +5168,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>0.5901</v>
+        <v>0.5899</v>
       </c>
       <c r="C131" t="n">
-        <v>0.5901</v>
+        <v>0.5899</v>
       </c>
       <c r="D131" t="n">
-        <v>0.5901</v>
+        <v>0.5899</v>
       </c>
       <c r="E131" t="n">
-        <v>0.5901</v>
+        <v>0.5899</v>
       </c>
       <c r="F131" t="n">
-        <v>2813408.6604</v>
+        <v>1043146.876</v>
       </c>
       <c r="G131" t="n">
-        <v>-15104351.52638772</v>
+        <v>-11034241.64138772</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5154,28 +5204,28 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>0.5908</v>
+        <v>0.5898</v>
       </c>
       <c r="C132" t="n">
-        <v>0.5908</v>
+        <v>0.5898</v>
       </c>
       <c r="D132" t="n">
-        <v>0.5908</v>
+        <v>0.5898</v>
       </c>
       <c r="E132" t="n">
-        <v>0.5908</v>
+        <v>0.5898</v>
       </c>
       <c r="F132" t="n">
-        <v>1234133.5562</v>
+        <v>45850.9803</v>
       </c>
       <c r="G132" t="n">
-        <v>-13870217.97018772</v>
+        <v>-11080092.62168772</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
@@ -5190,28 +5240,28 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>0.5911</v>
+        <v>0.5898</v>
       </c>
       <c r="C133" t="n">
-        <v>0.5911</v>
+        <v>0.5909</v>
       </c>
       <c r="D133" t="n">
-        <v>0.5911</v>
+        <v>0.5909</v>
       </c>
       <c r="E133" t="n">
-        <v>0.5911</v>
+        <v>0.5898</v>
       </c>
       <c r="F133" t="n">
-        <v>1129.1514</v>
+        <v>1281577.4573</v>
       </c>
       <c r="G133" t="n">
-        <v>-13869088.81878772</v>
+        <v>-9798515.164387718</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
@@ -5226,36 +5276,1176 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>0.59</v>
+        <v>0.5881999999999999</v>
       </c>
       <c r="C134" t="n">
-        <v>0.59</v>
+        <v>0.5881999999999999</v>
       </c>
       <c r="D134" t="n">
-        <v>0.59</v>
+        <v>0.5881999999999999</v>
       </c>
       <c r="E134" t="n">
-        <v>0.59</v>
+        <v>0.5881999999999999</v>
       </c>
       <c r="F134" t="n">
-        <v>0.725</v>
+        <v>1672872.8705</v>
       </c>
       <c r="G134" t="n">
-        <v>-13869089.54378772</v>
+        <v>-11471388.03488772</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
         <v>1</v>
       </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0.5909</v>
+      </c>
+      <c r="K134" t="n">
+        <v>0.5909</v>
+      </c>
       <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
       <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0.5877</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0.5877</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.5877</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.5877</v>
+      </c>
+      <c r="F135" t="n">
+        <v>1028007.5893</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-12499395.62418772</v>
+      </c>
+      <c r="H135" t="n">
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0.5881999999999999</v>
+      </c>
+      <c r="K135" t="n">
+        <v>0.5909</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>0.5909</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0.5868</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.5909</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.5868</v>
+      </c>
+      <c r="F136" t="n">
+        <v>24199.8931</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-12523595.51728772</v>
+      </c>
+      <c r="H136" t="n">
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0.5877</v>
+      </c>
+      <c r="K136" t="n">
+        <v>0.5909</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>0.5888</v>
+      </c>
+      <c r="C137" t="n">
+        <v>0.5888</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0.5888</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.5888</v>
+      </c>
+      <c r="F137" t="n">
+        <v>756490.8258</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-11767104.69148772</v>
+      </c>
+      <c r="H137" t="n">
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0.5868</v>
+      </c>
+      <c r="K137" t="n">
+        <v>0.5909</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0.5903</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0.5903</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.5903</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.5903</v>
+      </c>
+      <c r="F138" t="n">
+        <v>1592733.0469</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-10174371.64458772</v>
+      </c>
+      <c r="H138" t="n">
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0.5888</v>
+      </c>
+      <c r="K138" t="n">
+        <v>0.5909</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0.5895</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0.5895</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0.5895</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.5895</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1901435.2818</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-12075806.92638772</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>0.5909</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0.5869</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0.5869</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.5869</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.5869</v>
+      </c>
+      <c r="F140" t="n">
+        <v>2389700.0104</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-14465506.93678772</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>0.5909</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0.5876</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0.5876</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0.5876</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.5876</v>
+      </c>
+      <c r="F141" t="n">
+        <v>610730.4722</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-13854776.46458772</v>
+      </c>
+      <c r="H141" t="n">
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0.5869</v>
+      </c>
+      <c r="K141" t="n">
+        <v>0.5909</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0.5907</v>
+      </c>
+      <c r="C142" t="n">
+        <v>0.5907</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0.5907</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.5907</v>
+      </c>
+      <c r="F142" t="n">
+        <v>2396129.5412</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-11458646.92338772</v>
+      </c>
+      <c r="H142" t="n">
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0.5876</v>
+      </c>
+      <c r="K142" t="n">
+        <v>0.5909</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0.5894</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0.5894</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0.5894</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0.5894</v>
+      </c>
+      <c r="F143" t="n">
+        <v>1820805.939</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-13279452.86238772</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>1</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>0.5909</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0.588</v>
+      </c>
+      <c r="C144" t="n">
+        <v>0.588</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0.588</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0.588</v>
+      </c>
+      <c r="F144" t="n">
+        <v>2670298.5195</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-15949751.38188772</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>1</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>0.5909</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0.5909</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0.5909</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.5909</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0.5909</v>
+      </c>
+      <c r="F145" t="n">
+        <v>21871.9509</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-15927879.43098772</v>
+      </c>
+      <c r="H145" t="n">
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0.588</v>
+      </c>
+      <c r="K145" t="n">
+        <v>0.5909</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0.591</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0.591</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.591</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0.591</v>
+      </c>
+      <c r="F146" t="n">
+        <v>2674828.7635</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-13253050.66748772</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>0.5909</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0.591</v>
+      </c>
+      <c r="C147" t="n">
+        <v>0.591</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0.591</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0.591</v>
+      </c>
+      <c r="F147" t="n">
+        <v>1930355.7059</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-13253050.66748772</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>1</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>0.5909</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>0.9951692333728211</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0.5909</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0.591</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.591</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0.5909</v>
+      </c>
+      <c r="F148" t="n">
+        <v>807760.5394</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-13253050.66748772</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>1</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0.591</v>
+      </c>
+      <c r="C149" t="n">
+        <v>0.591</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0.591</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0.591</v>
+      </c>
+      <c r="F149" t="n">
+        <v>2504170.3708</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-13253050.66748772</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0.5909</v>
+      </c>
+      <c r="C150" t="n">
+        <v>0.5909</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0.5909</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0.5909</v>
+      </c>
+      <c r="F150" t="n">
+        <v>16550.811</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-13269601.47848772</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>0.591</v>
+      </c>
+      <c r="C151" t="n">
+        <v>0.591</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0.591</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0.591</v>
+      </c>
+      <c r="F151" t="n">
+        <v>659527.0281</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-12610074.45038772</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0.591</v>
+      </c>
+      <c r="C152" t="n">
+        <v>0.591</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0.591</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0.591</v>
+      </c>
+      <c r="F152" t="n">
+        <v>1953666.8565</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-12610074.45038772</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0.591</v>
+      </c>
+      <c r="C153" t="n">
+        <v>0.591</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0.591</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0.591</v>
+      </c>
+      <c r="F153" t="n">
+        <v>995256.8399</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-12610074.45038772</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0.591</v>
+      </c>
+      <c r="C154" t="n">
+        <v>0.591</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0.591</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0.591</v>
+      </c>
+      <c r="F154" t="n">
+        <v>1823151.9284</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-12610074.45038772</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0.5909</v>
+      </c>
+      <c r="C155" t="n">
+        <v>0.5909</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0.5909</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0.5909</v>
+      </c>
+      <c r="F155" t="n">
+        <v>769155</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-13379229.45038772</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>0.5909</v>
+      </c>
+      <c r="C156" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0.5909</v>
+      </c>
+      <c r="E156" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="F156" t="n">
+        <v>127000</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-13506229.45038772</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>0.591</v>
+      </c>
+      <c r="C157" t="n">
+        <v>0.591</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0.591</v>
+      </c>
+      <c r="E157" t="n">
+        <v>0.591</v>
+      </c>
+      <c r="F157" t="n">
+        <v>2951902.8928</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-10554326.55758772</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>0.591</v>
+      </c>
+      <c r="C158" t="n">
+        <v>0.591</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0.591</v>
+      </c>
+      <c r="E158" t="n">
+        <v>0.591</v>
+      </c>
+      <c r="F158" t="n">
+        <v>2789871.5031</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-10554326.55758772</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>1</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>0.5903</v>
+      </c>
+      <c r="C159" t="n">
+        <v>0.5903</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0.5903</v>
+      </c>
+      <c r="E159" t="n">
+        <v>0.5903</v>
+      </c>
+      <c r="F159" t="n">
+        <v>1736616.3084</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-12290942.86598772</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>1</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0.5901</v>
+      </c>
+      <c r="C160" t="n">
+        <v>0.5901</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0.5901</v>
+      </c>
+      <c r="E160" t="n">
+        <v>0.5901</v>
+      </c>
+      <c r="F160" t="n">
+        <v>2813408.6604</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-15104351.52638772</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>1</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0.5908</v>
+      </c>
+      <c r="C161" t="n">
+        <v>0.5908</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0.5908</v>
+      </c>
+      <c r="E161" t="n">
+        <v>0.5908</v>
+      </c>
+      <c r="F161" t="n">
+        <v>1234133.5562</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-13870217.97018772</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>1</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0.5911</v>
+      </c>
+      <c r="C162" t="n">
+        <v>0.5911</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0.5911</v>
+      </c>
+      <c r="E162" t="n">
+        <v>0.5911</v>
+      </c>
+      <c r="F162" t="n">
+        <v>1129.1514</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-13869088.81878772</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>1</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="C163" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-13869089.54378772</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>1</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-21 BackTest APIS.xlsx
+++ b/BackTest/2020-01-21 BackTest APIS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N163"/>
+  <dimension ref="A1:M163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1104,18 +1045,19 @@
         <v>6869149.376212285</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
+        <v>0.5796</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.5796</v>
+      </c>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1140,18 +1082,23 @@
         <v>6925149.270312285</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+        <v>0.578</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.5796</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1125,19 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0.5796</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1164,19 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0.5796</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1203,19 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0.5796</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1242,19 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0.5796</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1281,19 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0.5796</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1320,19 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0.5796</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1359,19 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0.5796</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1428,18 +1396,23 @@
         <v>5746180.075712285</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+        <v>0.5819</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.5796</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1439,19 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0.5796</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1500,22 +1476,23 @@
         <v>4427094.449812285</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>0.5819</v>
       </c>
       <c r="J31" t="n">
-        <v>0.5819</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.5819</v>
-      </c>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+        <v>0.5796</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1540,26 +1517,23 @@
         <v>4427996.349512285</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>0.5780999999999999</v>
       </c>
       <c r="J32" t="n">
-        <v>0.5780999999999999</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.5819</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+        <v>0.5796</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1584,26 +1558,23 @@
         <v>3113993.808012284</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>0.5819</v>
       </c>
       <c r="J33" t="n">
-        <v>0.5819</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.5819</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+        <v>0.5796</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1628,22 +1599,21 @@
         <v>3114917.662612285</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
-        <v>0.5795</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.5795</v>
-      </c>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+        <v>0.5796</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1668,26 +1638,23 @@
         <v>3114917.662612285</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.5819</v>
       </c>
       <c r="J35" t="n">
-        <v>0.5819</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.5795</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+        <v>0.5796</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1714,22 +1681,19 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>0.5795</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0.5796</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1754,22 +1718,23 @@
         <v>1878451.192312285</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>0.5800999999999999</v>
       </c>
       <c r="J37" t="n">
-        <v>0.5800999999999999</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.5800999999999999</v>
-      </c>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+        <v>0.5796</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1794,24 +1759,23 @@
         <v>379089.0971122845</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>0.5800999999999999</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+        <v>0.5819</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.5796</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1836,24 +1800,23 @@
         <v>379983.9899122845</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>0.5800999999999999</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+        <v>0.5786</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.5796</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1878,18 +1841,23 @@
         <v>-1914985.174987716</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+        <v>0.5819</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.5796</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1914,18 +1882,23 @@
         <v>-1829720.764078854</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+        <v>0.5816</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.5796</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1950,18 +1923,23 @@
         <v>-3999797.163778854</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+        <v>0.5868</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.5796</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1986,22 +1964,23 @@
         <v>-3998930.785078854</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>0.5803</v>
       </c>
       <c r="J43" t="n">
-        <v>0.5803</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.5803</v>
-      </c>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+        <v>0.5796</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2028,22 +2007,19 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>0.5803</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0.5796</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2070,22 +2046,19 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>0.5803</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0.5796</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2112,16 +2085,19 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0.5796</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2148,16 +2124,19 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0.5796</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2182,18 +2161,23 @@
         <v>-6839949.971378854</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+        <v>0.5795</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.5796</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2218,18 +2202,23 @@
         <v>-8463123.808778854</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+        <v>0.584</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.5796</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2254,18 +2243,23 @@
         <v>-7747559.449078854</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+        <v>0.5790999999999999</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.5796</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2292,16 +2286,19 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0.5796</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2328,16 +2325,19 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0.5796</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2362,18 +2362,23 @@
         <v>-3434413.178778855</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+        <v>0.58</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.5796</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2400,16 +2405,19 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0.5796</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2436,16 +2444,19 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0.5796</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2472,16 +2483,19 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0.5796</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2508,16 +2522,19 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0.5796</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2544,16 +2561,19 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0.5796</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2580,16 +2600,19 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0.5796</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2616,16 +2639,19 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0.5796</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2650,18 +2676,23 @@
         <v>-14244461.73967886</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+        <v>0.5864</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.5796</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2688,16 +2719,19 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0.5796</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2722,18 +2756,23 @@
         <v>-12750338.81077885</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+        <v>0.5802</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.5796</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2760,16 +2799,19 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0.5796</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2796,16 +2838,19 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0.5796</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2832,16 +2877,19 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0.5796</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2868,16 +2916,19 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0.5796</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2904,16 +2955,19 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0.5796</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2940,16 +2994,19 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0.5796</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2976,16 +3033,19 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0.5796</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3012,16 +3072,19 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0.5796</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3048,16 +3111,19 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0.5796</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3084,16 +3150,19 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0.5796</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3120,16 +3189,19 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0.5796</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3156,16 +3228,19 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0.5796</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3192,16 +3267,19 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0.5796</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3228,16 +3306,19 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0.5796</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3264,16 +3345,19 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0.5796</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3300,16 +3384,19 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0.5796</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3336,16 +3423,19 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0.5796</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3372,16 +3462,19 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0.5796</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3408,16 +3501,19 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0.5796</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3444,16 +3540,19 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0.5796</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3480,16 +3579,19 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0.5796</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3516,16 +3618,19 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0.5796</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3552,16 +3657,19 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0.5796</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3588,16 +3696,19 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0.5796</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3624,16 +3735,19 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0.5796</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3660,16 +3774,19 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0.5796</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3696,16 +3813,19 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0.5796</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3732,16 +3852,19 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0.5796</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3768,16 +3891,19 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0.5796</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3804,16 +3930,19 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0.5796</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3840,16 +3969,19 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0.5796</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3876,16 +4008,19 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0.5796</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3912,16 +4047,19 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0.5796</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3948,16 +4086,19 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0.5796</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3984,16 +4125,19 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0.5796</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4020,16 +4164,19 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0.5796</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4056,16 +4203,19 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0.5796</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4092,16 +4242,19 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0.5796</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4128,16 +4281,19 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0.5796</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4164,16 +4320,19 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0.5796</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4200,16 +4359,19 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0.5796</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4236,16 +4398,19 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0.5796</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4272,16 +4437,19 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0.5796</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4308,16 +4476,19 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0.5796</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4344,16 +4515,19 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0.5796</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4380,16 +4554,19 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0.5796</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4416,16 +4593,19 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0.5796</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4452,16 +4632,19 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0.5796</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4488,16 +4671,19 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0.5796</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4524,16 +4710,19 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0.5796</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4560,16 +4749,19 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0.5796</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4596,16 +4788,19 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0.5796</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4632,16 +4827,19 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0.5796</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4668,16 +4866,19 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0.5796</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4704,16 +4905,19 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0.5796</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4740,16 +4944,19 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0.5796</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4774,18 +4981,21 @@
         <v>-15411393.00028772</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0.5796</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1.014668737060041</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4812,16 +5022,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4848,16 +5055,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4884,16 +5088,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4920,16 +5121,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4956,16 +5154,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4990,22 +5185,15 @@
         <v>-10501293.73268772</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="n">
-        <v>0.5885</v>
-      </c>
-      <c r="K126" t="n">
-        <v>0.5885</v>
-      </c>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5032,22 +5220,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>0.5885</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5072,24 +5251,15 @@
         <v>-7904339.857287717</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>0.5885</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5116,16 +5286,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>1</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5152,16 +5319,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>1</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5188,16 +5352,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>1</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5222,18 +5383,15 @@
         <v>-11080092.62168772</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5258,18 +5416,15 @@
         <v>-9798515.164387718</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5294,22 +5449,15 @@
         <v>-11471388.03488772</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>1</v>
-      </c>
-      <c r="J134" t="n">
-        <v>0.5909</v>
-      </c>
-      <c r="K134" t="n">
-        <v>0.5909</v>
-      </c>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5334,26 +5482,15 @@
         <v>-12499395.62418772</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="n">
-        <v>0.5881999999999999</v>
-      </c>
-      <c r="K135" t="n">
-        <v>0.5909</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5378,26 +5515,15 @@
         <v>-12523595.51728772</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="n">
-        <v>0.5877</v>
-      </c>
-      <c r="K136" t="n">
-        <v>0.5909</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5422,26 +5548,15 @@
         <v>-11767104.69148772</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="n">
-        <v>0.5868</v>
-      </c>
-      <c r="K137" t="n">
-        <v>0.5909</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5466,26 +5581,15 @@
         <v>-10174371.64458772</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="n">
-        <v>0.5888</v>
-      </c>
-      <c r="K138" t="n">
-        <v>0.5909</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5512,22 +5616,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>0.5909</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5552,24 +5647,15 @@
         <v>-14465506.93678772</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>0.5909</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5594,26 +5680,15 @@
         <v>-13854776.46458772</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="n">
-        <v>0.5869</v>
-      </c>
-      <c r="K141" t="n">
-        <v>0.5909</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5638,26 +5713,15 @@
         <v>-11458646.92338772</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="n">
-        <v>0.5876</v>
-      </c>
-      <c r="K142" t="n">
-        <v>0.5909</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5684,22 +5748,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>1</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>0.5909</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5724,24 +5779,15 @@
         <v>-15949751.38188772</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>0.5909</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5766,26 +5812,15 @@
         <v>-15927879.43098772</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="n">
-        <v>0.588</v>
-      </c>
-      <c r="K145" t="n">
-        <v>0.5909</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5810,24 +5845,15 @@
         <v>-13253050.66748772</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>0.5909</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5854,22 +5880,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>1</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>0.5909</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>0.9951692333728211</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5894,18 +5911,15 @@
         <v>-13253050.66748772</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5932,16 +5946,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5966,18 +5977,15 @@
         <v>-13269601.47848772</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6002,18 +6010,15 @@
         <v>-12610074.45038772</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6038,18 +6043,15 @@
         <v>-12610074.45038772</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6074,18 +6076,15 @@
         <v>-12610074.45038772</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6110,18 +6109,15 @@
         <v>-12610074.45038772</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6146,18 +6142,15 @@
         <v>-13379229.45038772</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6184,16 +6177,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6220,16 +6210,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6256,16 +6243,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>1</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6290,18 +6274,15 @@
         <v>-12290942.86598772</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6328,16 +6309,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>1</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6364,16 +6342,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>1</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6398,18 +6373,15 @@
         <v>-13869088.81878772</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6434,20 +6406,17 @@
         <v>-13869089.54378772</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest APIS.xlsx
+++ b/BackTest/2020-01-21 BackTest APIS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>12273363.2023</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>13439112.6562</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>10348602.9919</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>9352123.840400001</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>7568723.348500001</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>7527598.434700001</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>7527598.434700001</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>4992475.585500001</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>2483325.521112285</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>4483325.521112286</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>3446818.711812286</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>5479875.754812285</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>7749273.422112285</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>9625149.270312285</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>8691881.558612285</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>8692746.930812284</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-15963779.01608772</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-14043571.33788772</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-16014328.35898772</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-15001543.76968772</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-14224916.12028772</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-14224916.12028772</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-14227145.19278772</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4279,14 +4279,10 @@
         <v>-13989977.30618772</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0.5869</v>
-      </c>
-      <c r="J118" t="n">
-        <v>0.5869</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
@@ -4319,14 +4315,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>0.5869</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4358,14 +4348,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>0.5869</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4427,14 +4411,10 @@
         <v>-15413156.66878772</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0.5868</v>
-      </c>
-      <c r="J122" t="n">
-        <v>0.5868</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
@@ -4464,1022 +4444,852 @@
         <v>-14375244.69738772</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0.5886</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0.5886</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.5886</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.5886</v>
+      </c>
+      <c r="F124" t="n">
+        <v>2324875.1763</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-12050369.52108772</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0.5872000000000001</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0.5885</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0.5885</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.5872000000000001</v>
+      </c>
+      <c r="F125" t="n">
+        <v>594754.7536000001</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-12645124.27468772</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0.5898</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.5898</v>
+      </c>
+      <c r="F126" t="n">
+        <v>2143830.542</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-10501293.73268772</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0.5904</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0.5904</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.5904</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.5904</v>
+      </c>
+      <c r="F127" t="n">
+        <v>1625650.376</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-8875643.356687717</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0.5905</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0.5905</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.5905</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.5905</v>
+      </c>
+      <c r="F128" t="n">
+        <v>971303.4994</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-7904339.857287717</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0.5911</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0.5911</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.5911</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.5911</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1134.9987</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-7903204.858587717</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0.5907</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0.5907</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.5907</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.5907</v>
+      </c>
+      <c r="F130" t="n">
+        <v>2087889.9068</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-9991094.765387718</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0.5899</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0.5899</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.5899</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.5899</v>
+      </c>
+      <c r="F131" t="n">
+        <v>1043146.876</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-11034241.64138772</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0.5898</v>
+      </c>
+      <c r="C132" t="n">
+        <v>0.5898</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0.5898</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.5898</v>
+      </c>
+      <c r="F132" t="n">
+        <v>45850.9803</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-11080092.62168772</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0.5898</v>
+      </c>
+      <c r="C133" t="n">
+        <v>0.5909</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0.5909</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.5898</v>
+      </c>
+      <c r="F133" t="n">
+        <v>1281577.4573</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-9798515.164387718</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0.5881999999999999</v>
+      </c>
+      <c r="C134" t="n">
+        <v>0.5881999999999999</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0.5881999999999999</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.5881999999999999</v>
+      </c>
+      <c r="F134" t="n">
+        <v>1672872.8705</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-11471388.03488772</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0.5877</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0.5877</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.5877</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.5877</v>
+      </c>
+      <c r="F135" t="n">
+        <v>1028007.5893</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-12499395.62418772</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>0.5909</v>
+      </c>
+      <c r="C136" t="n">
         <v>0.5868</v>
       </c>
-      <c r="J123" t="n">
+      <c r="D136" t="n">
+        <v>0.5909</v>
+      </c>
+      <c r="E136" t="n">
         <v>0.5868</v>
       </c>
-      <c r="K123" t="inlineStr">
+      <c r="F136" t="n">
+        <v>24199.8931</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-12523595.51728772</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>0.5888</v>
+      </c>
+      <c r="C137" t="n">
+        <v>0.5888</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0.5888</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.5888</v>
+      </c>
+      <c r="F137" t="n">
+        <v>756490.8258</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-11767104.69148772</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0.5903</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0.5903</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.5903</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.5903</v>
+      </c>
+      <c r="F138" t="n">
+        <v>1592733.0469</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-10174371.64458772</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0.5895</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0.5895</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0.5895</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.5895</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1901435.2818</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-12075806.92638772</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0.5869</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0.5869</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.5869</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.5869</v>
+      </c>
+      <c r="F140" t="n">
+        <v>2389700.0104</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-14465506.93678772</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0.5876</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0.5876</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0.5876</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.5876</v>
+      </c>
+      <c r="F141" t="n">
+        <v>610730.4722</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-13854776.46458772</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0.5907</v>
+      </c>
+      <c r="C142" t="n">
+        <v>0.5907</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0.5907</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.5907</v>
+      </c>
+      <c r="F142" t="n">
+        <v>2396129.5412</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-11458646.92338772</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0.5894</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0.5894</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0.5894</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0.5894</v>
+      </c>
+      <c r="F143" t="n">
+        <v>1820805.939</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-13279452.86238772</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0.588</v>
+      </c>
+      <c r="C144" t="n">
+        <v>0.588</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0.588</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0.588</v>
+      </c>
+      <c r="F144" t="n">
+        <v>2670298.5195</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-15949751.38188772</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0.5909</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0.5909</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.5909</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0.5909</v>
+      </c>
+      <c r="F145" t="n">
+        <v>21871.9509</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-15927879.43098772</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0.591</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0.591</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.591</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0.591</v>
+      </c>
+      <c r="F146" t="n">
+        <v>2674828.7635</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-13253050.66748772</v>
+      </c>
+      <c r="H146" t="n">
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0.5909</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0.5909</v>
+      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0.591</v>
+      </c>
+      <c r="C147" t="n">
+        <v>0.591</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0.591</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0.591</v>
+      </c>
+      <c r="F147" t="n">
+        <v>1930355.7059</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-13253050.66748772</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0.5909</v>
+      </c>
+      <c r="K147" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>0.5886</v>
-      </c>
-      <c r="C124" t="n">
-        <v>0.5886</v>
-      </c>
-      <c r="D124" t="n">
-        <v>0.5886</v>
-      </c>
-      <c r="E124" t="n">
-        <v>0.5886</v>
-      </c>
-      <c r="F124" t="n">
-        <v>2324875.1763</v>
-      </c>
-      <c r="G124" t="n">
-        <v>-12050369.52108772</v>
-      </c>
-      <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0.5872000000000001</v>
-      </c>
-      <c r="J124" t="n">
-        <v>0.5868</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>0.5872000000000001</v>
-      </c>
-      <c r="C125" t="n">
-        <v>0.5885</v>
-      </c>
-      <c r="D125" t="n">
-        <v>0.5885</v>
-      </c>
-      <c r="E125" t="n">
-        <v>0.5872000000000001</v>
-      </c>
-      <c r="F125" t="n">
-        <v>594754.7536000001</v>
-      </c>
-      <c r="G125" t="n">
-        <v>-12645124.27468772</v>
-      </c>
-      <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0.5886</v>
-      </c>
-      <c r="J125" t="n">
-        <v>0.5868</v>
-      </c>
-      <c r="K125" t="inlineStr">
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0.5909</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0.591</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.591</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0.5909</v>
+      </c>
+      <c r="F148" t="n">
+        <v>807760.5394</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-13253050.66748772</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0.5909</v>
+      </c>
+      <c r="K148" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="C126" t="n">
-        <v>0.5898</v>
-      </c>
-      <c r="D126" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="E126" t="n">
-        <v>0.5898</v>
-      </c>
-      <c r="F126" t="n">
-        <v>2143830.542</v>
-      </c>
-      <c r="G126" t="n">
-        <v>-10501293.73268772</v>
-      </c>
-      <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0.5885</v>
-      </c>
-      <c r="J126" t="n">
-        <v>0.5868</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>0.5904</v>
-      </c>
-      <c r="C127" t="n">
-        <v>0.5904</v>
-      </c>
-      <c r="D127" t="n">
-        <v>0.5904</v>
-      </c>
-      <c r="E127" t="n">
-        <v>0.5904</v>
-      </c>
-      <c r="F127" t="n">
-        <v>1625650.376</v>
-      </c>
-      <c r="G127" t="n">
-        <v>-8875643.356687717</v>
-      </c>
-      <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0.5898</v>
-      </c>
-      <c r="J127" t="n">
-        <v>0.5868</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>0.5905</v>
-      </c>
-      <c r="C128" t="n">
-        <v>0.5905</v>
-      </c>
-      <c r="D128" t="n">
-        <v>0.5905</v>
-      </c>
-      <c r="E128" t="n">
-        <v>0.5905</v>
-      </c>
-      <c r="F128" t="n">
-        <v>971303.4994</v>
-      </c>
-      <c r="G128" t="n">
-        <v>-7904339.857287717</v>
-      </c>
-      <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0.5904</v>
-      </c>
-      <c r="J128" t="n">
-        <v>0.5868</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>0.5911</v>
-      </c>
-      <c r="C129" t="n">
-        <v>0.5911</v>
-      </c>
-      <c r="D129" t="n">
-        <v>0.5911</v>
-      </c>
-      <c r="E129" t="n">
-        <v>0.5911</v>
-      </c>
-      <c r="F129" t="n">
-        <v>1134.9987</v>
-      </c>
-      <c r="G129" t="n">
-        <v>-7903204.858587717</v>
-      </c>
-      <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0.5905</v>
-      </c>
-      <c r="J129" t="n">
-        <v>0.5868</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>0.5907</v>
-      </c>
-      <c r="C130" t="n">
-        <v>0.5907</v>
-      </c>
-      <c r="D130" t="n">
-        <v>0.5907</v>
-      </c>
-      <c r="E130" t="n">
-        <v>0.5907</v>
-      </c>
-      <c r="F130" t="n">
-        <v>2087889.9068</v>
-      </c>
-      <c r="G130" t="n">
-        <v>-9991094.765387718</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>0.5868</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>0.5899</v>
-      </c>
-      <c r="C131" t="n">
-        <v>0.5899</v>
-      </c>
-      <c r="D131" t="n">
-        <v>0.5899</v>
-      </c>
-      <c r="E131" t="n">
-        <v>0.5899</v>
-      </c>
-      <c r="F131" t="n">
-        <v>1043146.876</v>
-      </c>
-      <c r="G131" t="n">
-        <v>-11034241.64138772</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>0.5868</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>0.5898</v>
-      </c>
-      <c r="C132" t="n">
-        <v>0.5898</v>
-      </c>
-      <c r="D132" t="n">
-        <v>0.5898</v>
-      </c>
-      <c r="E132" t="n">
-        <v>0.5898</v>
-      </c>
-      <c r="F132" t="n">
-        <v>45850.9803</v>
-      </c>
-      <c r="G132" t="n">
-        <v>-11080092.62168772</v>
-      </c>
-      <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0.5899</v>
-      </c>
-      <c r="J132" t="n">
-        <v>0.5868</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>0.5898</v>
-      </c>
-      <c r="C133" t="n">
-        <v>0.5909</v>
-      </c>
-      <c r="D133" t="n">
-        <v>0.5909</v>
-      </c>
-      <c r="E133" t="n">
-        <v>0.5898</v>
-      </c>
-      <c r="F133" t="n">
-        <v>1281577.4573</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-9798515.164387718</v>
-      </c>
-      <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0.5898</v>
-      </c>
-      <c r="J133" t="n">
-        <v>0.5868</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>0.5881999999999999</v>
-      </c>
-      <c r="C134" t="n">
-        <v>0.5881999999999999</v>
-      </c>
-      <c r="D134" t="n">
-        <v>0.5881999999999999</v>
-      </c>
-      <c r="E134" t="n">
-        <v>0.5881999999999999</v>
-      </c>
-      <c r="F134" t="n">
-        <v>1672872.8705</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-11471388.03488772</v>
-      </c>
-      <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0.5909</v>
-      </c>
-      <c r="J134" t="n">
-        <v>0.5868</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>0.5877</v>
-      </c>
-      <c r="C135" t="n">
-        <v>0.5877</v>
-      </c>
-      <c r="D135" t="n">
-        <v>0.5877</v>
-      </c>
-      <c r="E135" t="n">
-        <v>0.5877</v>
-      </c>
-      <c r="F135" t="n">
-        <v>1028007.5893</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-12499395.62418772</v>
-      </c>
-      <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0.5881999999999999</v>
-      </c>
-      <c r="J135" t="n">
-        <v>0.5868</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>0.5909</v>
-      </c>
-      <c r="C136" t="n">
-        <v>0.5868</v>
-      </c>
-      <c r="D136" t="n">
-        <v>0.5909</v>
-      </c>
-      <c r="E136" t="n">
-        <v>0.5868</v>
-      </c>
-      <c r="F136" t="n">
-        <v>24199.8931</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-12523595.51728772</v>
-      </c>
-      <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0.5877</v>
-      </c>
-      <c r="J136" t="n">
-        <v>0.5868</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>0.5888</v>
-      </c>
-      <c r="C137" t="n">
-        <v>0.5888</v>
-      </c>
-      <c r="D137" t="n">
-        <v>0.5888</v>
-      </c>
-      <c r="E137" t="n">
-        <v>0.5888</v>
-      </c>
-      <c r="F137" t="n">
-        <v>756490.8258</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-11767104.69148772</v>
-      </c>
-      <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0.5868</v>
-      </c>
-      <c r="J137" t="n">
-        <v>0.5868</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>0.5903</v>
-      </c>
-      <c r="C138" t="n">
-        <v>0.5903</v>
-      </c>
-      <c r="D138" t="n">
-        <v>0.5903</v>
-      </c>
-      <c r="E138" t="n">
-        <v>0.5903</v>
-      </c>
-      <c r="F138" t="n">
-        <v>1592733.0469</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-10174371.64458772</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>0.5868</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>0.5895</v>
-      </c>
-      <c r="C139" t="n">
-        <v>0.5895</v>
-      </c>
-      <c r="D139" t="n">
-        <v>0.5895</v>
-      </c>
-      <c r="E139" t="n">
-        <v>0.5895</v>
-      </c>
-      <c r="F139" t="n">
-        <v>1901435.2818</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-12075806.92638772</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>0.5868</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>0.5869</v>
-      </c>
-      <c r="C140" t="n">
-        <v>0.5869</v>
-      </c>
-      <c r="D140" t="n">
-        <v>0.5869</v>
-      </c>
-      <c r="E140" t="n">
-        <v>0.5869</v>
-      </c>
-      <c r="F140" t="n">
-        <v>2389700.0104</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-14465506.93678772</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>0.5868</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>0.5876</v>
-      </c>
-      <c r="C141" t="n">
-        <v>0.5876</v>
-      </c>
-      <c r="D141" t="n">
-        <v>0.5876</v>
-      </c>
-      <c r="E141" t="n">
-        <v>0.5876</v>
-      </c>
-      <c r="F141" t="n">
-        <v>610730.4722</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-13854776.46458772</v>
-      </c>
-      <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0.5869</v>
-      </c>
-      <c r="J141" t="n">
-        <v>0.5868</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>0.5907</v>
-      </c>
-      <c r="C142" t="n">
-        <v>0.5907</v>
-      </c>
-      <c r="D142" t="n">
-        <v>0.5907</v>
-      </c>
-      <c r="E142" t="n">
-        <v>0.5907</v>
-      </c>
-      <c r="F142" t="n">
-        <v>2396129.5412</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-11458646.92338772</v>
-      </c>
-      <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0.5876</v>
-      </c>
-      <c r="J142" t="n">
-        <v>0.5868</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>0.5894</v>
-      </c>
-      <c r="C143" t="n">
-        <v>0.5894</v>
-      </c>
-      <c r="D143" t="n">
-        <v>0.5894</v>
-      </c>
-      <c r="E143" t="n">
-        <v>0.5894</v>
-      </c>
-      <c r="F143" t="n">
-        <v>1820805.939</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-13279452.86238772</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>0.5868</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>0.588</v>
-      </c>
-      <c r="C144" t="n">
-        <v>0.588</v>
-      </c>
-      <c r="D144" t="n">
-        <v>0.588</v>
-      </c>
-      <c r="E144" t="n">
-        <v>0.588</v>
-      </c>
-      <c r="F144" t="n">
-        <v>2670298.5195</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-15949751.38188772</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>0.5868</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>0.5909</v>
-      </c>
-      <c r="C145" t="n">
-        <v>0.5909</v>
-      </c>
-      <c r="D145" t="n">
-        <v>0.5909</v>
-      </c>
-      <c r="E145" t="n">
-        <v>0.5909</v>
-      </c>
-      <c r="F145" t="n">
-        <v>21871.9509</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-15927879.43098772</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>0.5868</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>0.591</v>
-      </c>
-      <c r="C146" t="n">
-        <v>0.591</v>
-      </c>
-      <c r="D146" t="n">
-        <v>0.591</v>
-      </c>
-      <c r="E146" t="n">
-        <v>0.591</v>
-      </c>
-      <c r="F146" t="n">
-        <v>2674828.7635</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-13253050.66748772</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>0.5868</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>0.591</v>
-      </c>
-      <c r="C147" t="n">
-        <v>0.591</v>
-      </c>
-      <c r="D147" t="n">
-        <v>0.591</v>
-      </c>
-      <c r="E147" t="n">
-        <v>0.591</v>
-      </c>
-      <c r="F147" t="n">
-        <v>1930355.7059</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-13253050.66748772</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>0.5868</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>0.5909</v>
-      </c>
-      <c r="C148" t="n">
-        <v>0.591</v>
-      </c>
-      <c r="D148" t="n">
-        <v>0.591</v>
-      </c>
-      <c r="E148" t="n">
-        <v>0.5909</v>
-      </c>
-      <c r="F148" t="n">
-        <v>807760.5394</v>
-      </c>
-      <c r="G148" t="n">
-        <v>-13253050.66748772</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>0.5868</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5508,11 +5318,13 @@
         <v>-13253050.66748772</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0.591</v>
+      </c>
       <c r="J149" t="n">
-        <v>0.5868</v>
+        <v>0.5909</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -5547,11 +5359,13 @@
         <v>-13269601.47848772</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0.591</v>
+      </c>
       <c r="J150" t="n">
-        <v>0.5868</v>
+        <v>0.5909</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -5590,7 +5404,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>0.5868</v>
+        <v>0.5909</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -5625,11 +5439,13 @@
         <v>-12610074.45038772</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0.591</v>
+      </c>
       <c r="J152" t="n">
-        <v>0.5868</v>
+        <v>0.5909</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -5664,11 +5480,13 @@
         <v>-12610074.45038772</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0.591</v>
+      </c>
       <c r="J153" t="n">
-        <v>0.5868</v>
+        <v>0.5909</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -5703,11 +5521,13 @@
         <v>-12610074.45038772</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0.591</v>
+      </c>
       <c r="J154" t="n">
-        <v>0.5868</v>
+        <v>0.5909</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -5746,7 +5566,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>0.5868</v>
+        <v>0.5909</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -5785,7 +5605,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>0.5868</v>
+        <v>0.5909</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -5824,7 +5644,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>0.5868</v>
+        <v>0.5909</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -5863,7 +5683,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>0.5868</v>
+        <v>0.5909</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -5902,7 +5722,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>0.5868</v>
+        <v>0.5909</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -5941,7 +5761,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>0.5868</v>
+        <v>0.5909</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -5980,7 +5800,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>0.5868</v>
+        <v>0.5909</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -6015,11 +5835,13 @@
         <v>-13869088.81878772</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0.5908</v>
+      </c>
       <c r="J162" t="n">
-        <v>0.5868</v>
+        <v>0.5909</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6058,7 +5880,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>0.5868</v>
+        <v>0.5909</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6071,6 +5893,6 @@
       <c r="M163" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest APIS.xlsx
+++ b/BackTest/2020-01-21 BackTest APIS.xlsx
@@ -3520,7 +3520,7 @@
         <v>-15963779.01608772</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-14043571.33788772</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-16014328.35898772</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-15001543.76968772</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-14224916.12028772</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-14224916.12028772</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-14227145.19278772</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4180,10 +4180,14 @@
         <v>-13280513.04878772</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0.5889</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.5889</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
@@ -4213,11 +4217,19 @@
         <v>-11749491.73508772</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0.5897</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.5889</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4246,11 +4258,19 @@
         <v>-13991681.17398772</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0.5911</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.5889</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4279,11 +4299,19 @@
         <v>-13989977.30618772</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0.5869</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0.5889</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4315,8 +4343,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0.5889</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4345,11 +4379,17 @@
         <v>-15411393.00028772</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0.5889</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4378,11 +4418,17 @@
         <v>-15413156.66878772</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0.5889</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4411,11 +4457,19 @@
         <v>-15413156.66878772</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0.5868</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0.5889</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4444,11 +4498,19 @@
         <v>-14375244.69738772</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0.5868</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0.5889</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4477,11 +4539,19 @@
         <v>-12050369.52108772</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0.5872000000000001</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0.5889</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4510,11 +4580,19 @@
         <v>-12645124.27468772</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0.5886</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0.5889</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4543,11 +4621,19 @@
         <v>-10501293.73268772</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0.5885</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0.5889</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4576,13 +4662,19 @@
         <v>-8875643.356687717</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0.5889</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L127" t="n">
-        <v>1</v>
+        <v>0.9975471217524198</v>
       </c>
       <c r="M127" t="inlineStr"/>
     </row>
@@ -4609,11 +4701,19 @@
         <v>-7904339.857287717</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0.5904</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0.5885</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4642,10 +4742,14 @@
         <v>-7903204.858587717</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0.5905</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0.5905</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
@@ -4675,11 +4779,17 @@
         <v>-9991094.765387718</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0.5905</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4708,11 +4818,17 @@
         <v>-11034241.64138772</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0.5905</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4741,7 +4857,7 @@
         <v>-11080092.62168772</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,11 +4890,17 @@
         <v>-9798515.164387718</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0.5898</v>
+      </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4807,11 +4929,17 @@
         <v>-11471388.03488772</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0.5909</v>
+      </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4840,11 +4968,17 @@
         <v>-12499395.62418772</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0.5881999999999999</v>
+      </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4873,11 +5007,17 @@
         <v>-12523595.51728772</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0.5877</v>
+      </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4906,11 +5046,17 @@
         <v>-11767104.69148772</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0.5868</v>
+      </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4939,11 +5085,17 @@
         <v>-10174371.64458772</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0.5888</v>
+      </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4972,11 +5124,15 @@
         <v>-12075806.92638772</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5005,11 +5161,17 @@
         <v>-14465506.93678772</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0.5895</v>
+      </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5038,11 +5200,17 @@
         <v>-13854776.46458772</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0.5869</v>
+      </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5071,11 +5239,17 @@
         <v>-11458646.92338772</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0.5876</v>
+      </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5104,11 +5278,17 @@
         <v>-13279452.86238772</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0.5907</v>
+      </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5137,11 +5317,17 @@
         <v>-15949751.38188772</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0.5894</v>
+      </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5170,11 +5356,17 @@
         <v>-15927879.43098772</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0.588</v>
+      </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5208,10 +5400,12 @@
       <c r="I146" t="n">
         <v>0.5909</v>
       </c>
-      <c r="J146" t="n">
-        <v>0.5909</v>
-      </c>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5240,20 +5434,16 @@
         <v>-13253050.66748772</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>0.5909</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
@@ -5279,7 +5469,7 @@
         <v>-13253050.66748772</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
@@ -5318,11 +5508,9 @@
         <v>-13253050.66748772</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0.591</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
         <v>0.5909</v>
       </c>
@@ -5359,11 +5547,9 @@
         <v>-13269601.47848772</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0.591</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
         <v>0.5909</v>
       </c>
@@ -5400,7 +5586,7 @@
         <v>-12610074.45038772</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
@@ -5439,11 +5625,9 @@
         <v>-12610074.45038772</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0.591</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
         <v>0.5909</v>
       </c>
@@ -5480,11 +5664,9 @@
         <v>-12610074.45038772</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0.591</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
         <v>0.5909</v>
       </c>
@@ -5521,11 +5703,9 @@
         <v>-12610074.45038772</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0.591</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
         <v>0.5909</v>
       </c>
@@ -5562,7 +5742,7 @@
         <v>-13379229.45038772</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
@@ -5601,7 +5781,7 @@
         <v>-13506229.45038772</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
@@ -5640,7 +5820,7 @@
         <v>-10554326.55758772</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
@@ -5679,7 +5859,7 @@
         <v>-10554326.55758772</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
@@ -5718,7 +5898,7 @@
         <v>-12290942.86598772</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
@@ -5726,11 +5906,11 @@
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L159" t="n">
-        <v>1</v>
+        <v>0.9939845997630734</v>
       </c>
       <c r="M159" t="inlineStr"/>
     </row>
@@ -5757,17 +5937,11 @@
         <v>-15104351.52638772</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>0.5909</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5796,17 +5970,11 @@
         <v>-13870217.97018772</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>0.5909</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5841,13 +6009,9 @@
         <v>0.5908</v>
       </c>
       <c r="J162" t="n">
-        <v>0.5909</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0.5908</v>
+      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5876,15 +6040,15 @@
         <v>-13869089.54378772</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>0.5909</v>
+        <v>0.5908</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L163" t="n">

--- a/BackTest/2020-01-21 BackTest APIS.xlsx
+++ b/BackTest/2020-01-21 BackTest APIS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M163"/>
+  <dimension ref="A1:L163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>2139108.7092</v>
       </c>
       <c r="G2" t="n">
-        <v>12273363.2023</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>1165749.4539</v>
       </c>
       <c r="G3" t="n">
-        <v>13439112.6562</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>1418822.7756</v>
       </c>
       <c r="G4" t="n">
-        <v>12020289.8806</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>2095013.8553</v>
       </c>
       <c r="G5" t="n">
-        <v>9925276.0253</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>1211207.9766</v>
       </c>
       <c r="G6" t="n">
-        <v>11136484.0019</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>787881.01</v>
       </c>
       <c r="G7" t="n">
-        <v>10348602.9919</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>996479.1515</v>
       </c>
       <c r="G8" t="n">
-        <v>9352123.840400001</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>1783400.4919</v>
       </c>
       <c r="G9" t="n">
-        <v>7568723.348500001</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>41124.9138</v>
       </c>
       <c r="G10" t="n">
-        <v>7527598.434700001</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>1613560.0315</v>
       </c>
       <c r="G11" t="n">
-        <v>7527598.434700001</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>2535122.8492</v>
       </c>
       <c r="G12" t="n">
-        <v>4992475.585500001</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>1725.327812284334</v>
       </c>
       <c r="G13" t="n">
-        <v>4994200.913312285</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>2510875.3922</v>
       </c>
       <c r="G14" t="n">
-        <v>2483325.521112285</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>2000000</v>
       </c>
       <c r="G15" t="n">
-        <v>4483325.521112286</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>1036506.8093</v>
       </c>
       <c r="G16" t="n">
-        <v>3446818.711812286</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>2033057.043</v>
       </c>
       <c r="G17" t="n">
-        <v>5479875.754812285</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>2269397.6673</v>
       </c>
       <c r="G18" t="n">
-        <v>7749273.422112285</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>2556</v>
       </c>
       <c r="G19" t="n">
-        <v>7751829.422112285</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>882680.0459</v>
       </c>
       <c r="G20" t="n">
-        <v>6869149.376212285</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,19 @@
         <v>55999.8941</v>
       </c>
       <c r="G21" t="n">
-        <v>6925149.270312285</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>0.578</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.578</v>
+      </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1047,21 @@
         <v>1100000</v>
       </c>
       <c r="G22" t="n">
-        <v>8025149.270312285</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="n">
+        <v>0.578</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1083,21 @@
         <v>1600000</v>
       </c>
       <c r="G23" t="n">
-        <v>9625149.270312285</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>0.578</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1119,15 @@
         <v>2353743.9366</v>
       </c>
       <c r="G24" t="n">
-        <v>9625149.270312285</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1149,15 @@
         <v>933267.7117</v>
       </c>
       <c r="G25" t="n">
-        <v>8691881.558612285</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1179,15 @@
         <v>865.3722</v>
       </c>
       <c r="G26" t="n">
-        <v>8692746.930812284</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1209,15 @@
         <v>2337569.6889</v>
       </c>
       <c r="G27" t="n">
-        <v>6355177.241912285</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1239,15 @@
         <v>873.6853</v>
       </c>
       <c r="G28" t="n">
-        <v>6356050.927212285</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1269,15 @@
         <v>609870.8515</v>
       </c>
       <c r="G29" t="n">
-        <v>5746180.075712285</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1299,15 @@
         <v>879.0688</v>
       </c>
       <c r="G30" t="n">
-        <v>5747059.144512285</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1329,15 @@
         <v>1319964.6947</v>
       </c>
       <c r="G31" t="n">
-        <v>4427094.449812285</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1359,15 @@
         <v>901.8997000000001</v>
       </c>
       <c r="G32" t="n">
-        <v>4427996.349512285</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1389,15 @@
         <v>1314002.5415</v>
       </c>
       <c r="G33" t="n">
-        <v>3113993.808012284</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1419,15 @@
         <v>923.8546</v>
       </c>
       <c r="G34" t="n">
-        <v>3114917.662612285</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1449,15 @@
         <v>2171811.2862</v>
       </c>
       <c r="G35" t="n">
-        <v>3114917.662612285</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1479,15 @@
         <v>1237552.3061</v>
       </c>
       <c r="G36" t="n">
-        <v>1877365.356512285</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1509,15 @@
         <v>1085.8358</v>
       </c>
       <c r="G37" t="n">
-        <v>1878451.192312285</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1539,15 @@
         <v>1499362.0952</v>
       </c>
       <c r="G38" t="n">
-        <v>379089.0971122845</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1569,15 @@
         <v>894.8928</v>
       </c>
       <c r="G39" t="n">
-        <v>379983.9899122845</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1599,15 @@
         <v>2294969.1649</v>
       </c>
       <c r="G40" t="n">
-        <v>-1914985.174987716</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1629,15 @@
         <v>85264.41090886162</v>
       </c>
       <c r="G41" t="n">
-        <v>-1829720.764078854</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1659,15 @@
         <v>2170076.3997</v>
       </c>
       <c r="G42" t="n">
-        <v>-3999797.163778854</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1689,15 @@
         <v>866.3787</v>
       </c>
       <c r="G43" t="n">
-        <v>-3998930.785078854</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1719,15 @@
         <v>651670.7661</v>
       </c>
       <c r="G44" t="n">
-        <v>-4650601.551178854</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1749,15 @@
         <v>2013500.1194</v>
       </c>
       <c r="G45" t="n">
-        <v>-6664101.670578854</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1779,15 @@
         <v>214750.877</v>
       </c>
       <c r="G46" t="n">
-        <v>-6449350.793578854</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1809,15 @@
         <v>2260191.7259</v>
       </c>
       <c r="G47" t="n">
-        <v>-8709542.519478854</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1839,15 @@
         <v>1869592.5481</v>
       </c>
       <c r="G48" t="n">
-        <v>-6839949.971378854</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1869,15 @@
         <v>1623173.8374</v>
       </c>
       <c r="G49" t="n">
-        <v>-8463123.808778854</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1899,15 @@
         <v>715564.3597</v>
       </c>
       <c r="G50" t="n">
-        <v>-7747559.449078854</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1929,15 @@
         <v>3351384.0231</v>
       </c>
       <c r="G51" t="n">
-        <v>-4396175.425978854</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1959,15 @@
         <v>1342783.1894</v>
       </c>
       <c r="G52" t="n">
-        <v>-5738958.615378855</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1989,15 @@
         <v>2304545.4366</v>
       </c>
       <c r="G53" t="n">
-        <v>-3434413.178778855</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2019,15 @@
         <v>1940884.9539</v>
       </c>
       <c r="G54" t="n">
-        <v>-5375298.132678855</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2049,15 @@
         <v>10000000</v>
       </c>
       <c r="G55" t="n">
-        <v>-15375298.13267886</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2079,15 @@
         <v>1127693.8623</v>
       </c>
       <c r="G56" t="n">
-        <v>-14247604.27037886</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2109,15 @@
         <v>864.071</v>
       </c>
       <c r="G57" t="n">
-        <v>-14246740.19937886</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2139,15 @@
         <v>6184.5</v>
       </c>
       <c r="G58" t="n">
-        <v>-14252924.69937886</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2169,15 @@
         <v>1875174.7488</v>
       </c>
       <c r="G59" t="n">
-        <v>-12377749.95057886</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2199,15 @@
         <v>866.6362</v>
       </c>
       <c r="G60" t="n">
-        <v>-12376883.31437886</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2229,15 @@
         <v>1867578.4253</v>
       </c>
       <c r="G61" t="n">
-        <v>-14244461.73967886</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2259,15 @@
         <v>1493245.1311</v>
       </c>
       <c r="G62" t="n">
-        <v>-12751216.60857886</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2289,15 @@
         <v>877.7978000000001</v>
       </c>
       <c r="G63" t="n">
-        <v>-12750338.81077885</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2319,15 @@
         <v>1687074.6809</v>
       </c>
       <c r="G64" t="n">
-        <v>-14437413.49167885</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2349,15 @@
         <v>897.6127</v>
       </c>
       <c r="G65" t="n">
-        <v>-14436515.87897885</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2379,15 @@
         <v>1707.389</v>
       </c>
       <c r="G66" t="n">
-        <v>-14436515.87897885</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2409,15 @@
         <v>2017791.0424</v>
       </c>
       <c r="G67" t="n">
-        <v>-14436515.87897885</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2439,15 @@
         <v>2028863.296</v>
       </c>
       <c r="G68" t="n">
-        <v>-16465379.17497885</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2469,15 @@
         <v>2331866.9829</v>
       </c>
       <c r="G69" t="n">
-        <v>-18797246.15787885</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2499,15 @@
         <v>6738.8316</v>
       </c>
       <c r="G70" t="n">
-        <v>-18790507.32627885</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2529,15 @@
         <v>2491560.4737</v>
       </c>
       <c r="G71" t="n">
-        <v>-21282067.79997885</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2559,15 @@
         <v>838224.2603</v>
       </c>
       <c r="G72" t="n">
-        <v>-20443843.53967885</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2589,15 @@
         <v>1.7397</v>
       </c>
       <c r="G73" t="n">
-        <v>-20443843.53967885</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2619,15 @@
         <v>1232122.7356</v>
       </c>
       <c r="G74" t="n">
-        <v>-21675966.27527885</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2649,15 @@
         <v>2028206.5019</v>
       </c>
       <c r="G75" t="n">
-        <v>-19647759.77337885</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2679,15 @@
         <v>1591913.2545</v>
       </c>
       <c r="G76" t="n">
-        <v>-18055846.51887885</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2709,15 @@
         <v>1104582.8111</v>
       </c>
       <c r="G77" t="n">
-        <v>-16951263.70777885</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2739,15 @@
         <v>2039897.4556</v>
       </c>
       <c r="G78" t="n">
-        <v>-18991161.16337885</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2769,15 @@
         <v>754981.1542</v>
       </c>
       <c r="G79" t="n">
-        <v>-18236180.00917885</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2799,15 @@
         <v>990177.6861</v>
       </c>
       <c r="G80" t="n">
-        <v>-17246002.32307886</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2829,15 @@
         <v>2424471.1348</v>
       </c>
       <c r="G81" t="n">
-        <v>-19670473.45787886</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2859,15 @@
         <v>2018664.0704</v>
       </c>
       <c r="G82" t="n">
-        <v>-17651809.38747886</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2889,15 @@
         <v>1064961.0685</v>
       </c>
       <c r="G83" t="n">
-        <v>-16586848.31897886</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2919,15 @@
         <v>1030752.4534</v>
       </c>
       <c r="G84" t="n">
-        <v>-17617600.77237886</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2949,15 @@
         <v>908.03</v>
       </c>
       <c r="G85" t="n">
-        <v>-17616692.74237886</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2979,15 @@
         <v>747750.3792</v>
       </c>
       <c r="G86" t="n">
-        <v>-18364443.12157886</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3009,15 @@
         <v>1314377.5202</v>
       </c>
       <c r="G87" t="n">
-        <v>-19678820.64177886</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3039,15 @@
         <v>1033893.303</v>
       </c>
       <c r="G88" t="n">
-        <v>-20712713.94477886</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3069,15 @@
         <v>318316.4826911384</v>
       </c>
       <c r="G89" t="n">
-        <v>-20394397.46208772</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3099,15 @@
         <v>838839.9094</v>
       </c>
       <c r="G90" t="n">
-        <v>-19555557.55268772</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3129,15 @@
         <v>6738.8316</v>
       </c>
       <c r="G91" t="n">
-        <v>-19562296.38428771</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3159,15 @@
         <v>1147218.634</v>
       </c>
       <c r="G92" t="n">
-        <v>-18415077.75028772</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3189,15 @@
         <v>1517900.4066</v>
       </c>
       <c r="G93" t="n">
-        <v>-16897177.34368772</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3219,15 @@
         <v>1502544.0737</v>
       </c>
       <c r="G94" t="n">
-        <v>-15394633.26998772</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3249,15 @@
         <v>569145.7461</v>
       </c>
       <c r="G95" t="n">
-        <v>-15963779.01608772</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3279,15 @@
         <v>1920207.6782</v>
       </c>
       <c r="G96" t="n">
-        <v>-14043571.33788772</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3309,15 @@
         <v>1970757.0211</v>
       </c>
       <c r="G97" t="n">
-        <v>-16014328.35898772</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3339,15 @@
         <v>1012784.5893</v>
       </c>
       <c r="G98" t="n">
-        <v>-15001543.76968772</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3369,15 @@
         <v>776627.6494</v>
       </c>
       <c r="G99" t="n">
-        <v>-14224916.12028772</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3399,15 @@
         <v>2093122.7154</v>
       </c>
       <c r="G100" t="n">
-        <v>-14224916.12028772</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3429,15 @@
         <v>2229.0725</v>
       </c>
       <c r="G101" t="n">
-        <v>-14227145.19278772</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3459,15 @@
         <v>1469995.5407</v>
       </c>
       <c r="G102" t="n">
-        <v>-12757149.65208772</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3489,15 @@
         <v>1037892.4182</v>
       </c>
       <c r="G103" t="n">
-        <v>-11719257.23388772</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3519,15 @@
         <v>84682.13649999999</v>
       </c>
       <c r="G104" t="n">
-        <v>-11634575.09738772</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3549,15 @@
         <v>2382401.1299</v>
       </c>
       <c r="G105" t="n">
-        <v>-14016976.22728772</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3579,15 @@
         <v>2023946.8404</v>
       </c>
       <c r="G106" t="n">
-        <v>-16040923.06768772</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3609,15 @@
         <v>1067881.7372</v>
       </c>
       <c r="G107" t="n">
-        <v>-14973041.33048772</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3639,15 @@
         <v>1690.6171</v>
       </c>
       <c r="G108" t="n">
-        <v>-14971350.71338772</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3669,15 @@
         <v>245439.3538</v>
       </c>
       <c r="G109" t="n">
-        <v>-15216790.06718772</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3699,15 @@
         <v>1534763.1514</v>
       </c>
       <c r="G110" t="n">
-        <v>-13682026.91578772</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3729,15 @@
         <v>3454.2419</v>
       </c>
       <c r="G111" t="n">
-        <v>-13682026.91578772</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3759,15 @@
         <v>1730.1039</v>
       </c>
       <c r="G112" t="n">
-        <v>-13682026.91578772</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3789,15 @@
         <v>1062850.5041</v>
       </c>
       <c r="G113" t="n">
-        <v>-14744877.41988772</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3819,15 @@
         <v>847075.5494</v>
       </c>
       <c r="G114" t="n">
-        <v>-15591952.96928772</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,22 +3849,15 @@
         <v>2311439.9205</v>
       </c>
       <c r="G115" t="n">
-        <v>-13280513.04878772</v>
-      </c>
-      <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0.5889</v>
-      </c>
-      <c r="J115" t="n">
-        <v>0.5889</v>
-      </c>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4214,26 +3879,15 @@
         <v>1531021.3137</v>
       </c>
       <c r="G116" t="n">
-        <v>-11749491.73508772</v>
-      </c>
-      <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0.5897</v>
-      </c>
-      <c r="J116" t="n">
-        <v>0.5889</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4255,26 +3909,15 @@
         <v>2242189.4389</v>
       </c>
       <c r="G117" t="n">
-        <v>-13991681.17398772</v>
-      </c>
-      <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0.5911</v>
-      </c>
-      <c r="J117" t="n">
-        <v>0.5889</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4296,26 +3939,15 @@
         <v>1703.8678</v>
       </c>
       <c r="G118" t="n">
-        <v>-13989977.30618772</v>
-      </c>
-      <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0.5869</v>
-      </c>
-      <c r="J118" t="n">
-        <v>0.5889</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4337,24 +3969,15 @@
         <v>1730.1039</v>
       </c>
       <c r="G119" t="n">
-        <v>-13989977.30618772</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>0.5889</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4376,24 +3999,15 @@
         <v>1421415.6941</v>
       </c>
       <c r="G120" t="n">
-        <v>-15411393.00028772</v>
-      </c>
-      <c r="H120" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>0.5889</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4415,24 +4029,15 @@
         <v>1763.6685</v>
       </c>
       <c r="G121" t="n">
-        <v>-15413156.66878772</v>
-      </c>
-      <c r="H121" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>0.5889</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4454,26 +4059,15 @@
         <v>1704.1582</v>
       </c>
       <c r="G122" t="n">
-        <v>-15413156.66878772</v>
-      </c>
-      <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0.5868</v>
-      </c>
-      <c r="J122" t="n">
-        <v>0.5889</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4495,26 +4089,15 @@
         <v>1037911.9714</v>
       </c>
       <c r="G123" t="n">
-        <v>-14375244.69738772</v>
-      </c>
-      <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0.5868</v>
-      </c>
-      <c r="J123" t="n">
-        <v>0.5889</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4536,26 +4119,15 @@
         <v>2324875.1763</v>
       </c>
       <c r="G124" t="n">
-        <v>-12050369.52108772</v>
-      </c>
-      <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0.5872000000000001</v>
-      </c>
-      <c r="J124" t="n">
-        <v>0.5889</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4577,26 +4149,15 @@
         <v>594754.7536000001</v>
       </c>
       <c r="G125" t="n">
-        <v>-12645124.27468772</v>
-      </c>
-      <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0.5886</v>
-      </c>
-      <c r="J125" t="n">
-        <v>0.5889</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4618,26 +4179,15 @@
         <v>2143830.542</v>
       </c>
       <c r="G126" t="n">
-        <v>-10501293.73268772</v>
-      </c>
-      <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0.5885</v>
-      </c>
-      <c r="J126" t="n">
-        <v>0.5889</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4659,24 +4209,15 @@
         <v>1625650.376</v>
       </c>
       <c r="G127" t="n">
-        <v>-8875643.356687717</v>
-      </c>
-      <c r="H127" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>0.5889</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>0.9975471217524198</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4698,26 +4239,15 @@
         <v>971303.4994</v>
       </c>
       <c r="G128" t="n">
-        <v>-7904339.857287717</v>
-      </c>
-      <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0.5904</v>
-      </c>
-      <c r="J128" t="n">
-        <v>0.5885</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4739,22 +4269,15 @@
         <v>1134.9987</v>
       </c>
       <c r="G129" t="n">
-        <v>-7903204.858587717</v>
-      </c>
-      <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0.5905</v>
-      </c>
-      <c r="J129" t="n">
-        <v>0.5905</v>
-      </c>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4776,24 +4299,15 @@
         <v>2087889.9068</v>
       </c>
       <c r="G130" t="n">
-        <v>-9991094.765387718</v>
-      </c>
-      <c r="H130" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>0.5905</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4815,24 +4329,15 @@
         <v>1043146.876</v>
       </c>
       <c r="G131" t="n">
-        <v>-11034241.64138772</v>
-      </c>
-      <c r="H131" t="n">
         <v>2</v>
       </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>0.5905</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4854,18 +4359,15 @@
         <v>45850.9803</v>
       </c>
       <c r="G132" t="n">
-        <v>-11080092.62168772</v>
-      </c>
-      <c r="H132" t="n">
         <v>2</v>
       </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4887,24 +4389,15 @@
         <v>1281577.4573</v>
       </c>
       <c r="G133" t="n">
-        <v>-9798515.164387718</v>
-      </c>
-      <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0.5898</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4926,24 +4419,15 @@
         <v>1672872.8705</v>
       </c>
       <c r="G134" t="n">
-        <v>-11471388.03488772</v>
-      </c>
-      <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0.5909</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4965,24 +4449,15 @@
         <v>1028007.5893</v>
       </c>
       <c r="G135" t="n">
-        <v>-12499395.62418772</v>
-      </c>
-      <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0.5881999999999999</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5004,24 +4479,15 @@
         <v>24199.8931</v>
       </c>
       <c r="G136" t="n">
-        <v>-12523595.51728772</v>
-      </c>
-      <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0.5877</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5043,24 +4509,15 @@
         <v>756490.8258</v>
       </c>
       <c r="G137" t="n">
-        <v>-11767104.69148772</v>
-      </c>
-      <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0.5868</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5082,24 +4539,15 @@
         <v>1592733.0469</v>
       </c>
       <c r="G138" t="n">
-        <v>-10174371.64458772</v>
-      </c>
-      <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0.5888</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5121,22 +4569,15 @@
         <v>1901435.2818</v>
       </c>
       <c r="G139" t="n">
-        <v>-12075806.92638772</v>
-      </c>
-      <c r="H139" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5158,24 +4599,15 @@
         <v>2389700.0104</v>
       </c>
       <c r="G140" t="n">
-        <v>-14465506.93678772</v>
-      </c>
-      <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0.5895</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5197,24 +4629,15 @@
         <v>610730.4722</v>
       </c>
       <c r="G141" t="n">
-        <v>-13854776.46458772</v>
-      </c>
-      <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0.5869</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5236,24 +4659,15 @@
         <v>2396129.5412</v>
       </c>
       <c r="G142" t="n">
-        <v>-11458646.92338772</v>
-      </c>
-      <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0.5876</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5275,24 +4689,15 @@
         <v>1820805.939</v>
       </c>
       <c r="G143" t="n">
-        <v>-13279452.86238772</v>
-      </c>
-      <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0.5907</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5314,24 +4719,15 @@
         <v>2670298.5195</v>
       </c>
       <c r="G144" t="n">
-        <v>-15949751.38188772</v>
-      </c>
-      <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0.5894</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5353,24 +4749,15 @@
         <v>21871.9509</v>
       </c>
       <c r="G145" t="n">
-        <v>-15927879.43098772</v>
-      </c>
-      <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0.588</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5392,24 +4779,15 @@
         <v>2674828.7635</v>
       </c>
       <c r="G146" t="n">
-        <v>-13253050.66748772</v>
-      </c>
-      <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0.5909</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5431,20 +4809,15 @@
         <v>1930355.7059</v>
       </c>
       <c r="G147" t="n">
-        <v>-13253050.66748772</v>
-      </c>
-      <c r="H147" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="K147" t="n">
+        <v>1</v>
       </c>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5466,24 +4839,15 @@
         <v>807760.5394</v>
       </c>
       <c r="G148" t="n">
-        <v>-13253050.66748772</v>
-      </c>
-      <c r="H148" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>0.5909</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5505,24 +4869,15 @@
         <v>2504170.3708</v>
       </c>
       <c r="G149" t="n">
-        <v>-13253050.66748772</v>
-      </c>
-      <c r="H149" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>0.5909</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5544,24 +4899,15 @@
         <v>16550.811</v>
       </c>
       <c r="G150" t="n">
-        <v>-13269601.47848772</v>
-      </c>
-      <c r="H150" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>0.5909</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5583,24 +4929,15 @@
         <v>659527.0281</v>
       </c>
       <c r="G151" t="n">
-        <v>-12610074.45038772</v>
-      </c>
-      <c r="H151" t="n">
         <v>2</v>
       </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>0.5909</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5622,24 +4959,15 @@
         <v>1953666.8565</v>
       </c>
       <c r="G152" t="n">
-        <v>-12610074.45038772</v>
-      </c>
-      <c r="H152" t="n">
         <v>2</v>
       </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>0.5909</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5661,24 +4989,15 @@
         <v>995256.8399</v>
       </c>
       <c r="G153" t="n">
-        <v>-12610074.45038772</v>
-      </c>
-      <c r="H153" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>0.5909</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5700,24 +5019,15 @@
         <v>1823151.9284</v>
       </c>
       <c r="G154" t="n">
-        <v>-12610074.45038772</v>
-      </c>
-      <c r="H154" t="n">
         <v>2</v>
       </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>0.5909</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5739,24 +5049,15 @@
         <v>769155</v>
       </c>
       <c r="G155" t="n">
-        <v>-13379229.45038772</v>
-      </c>
-      <c r="H155" t="n">
         <v>2</v>
       </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>0.5909</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5778,24 +5079,15 @@
         <v>127000</v>
       </c>
       <c r="G156" t="n">
-        <v>-13506229.45038772</v>
-      </c>
-      <c r="H156" t="n">
         <v>2</v>
       </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>0.5909</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5817,24 +5109,15 @@
         <v>2951902.8928</v>
       </c>
       <c r="G157" t="n">
-        <v>-10554326.55758772</v>
-      </c>
-      <c r="H157" t="n">
         <v>2</v>
       </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>0.5909</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5856,24 +5139,15 @@
         <v>2789871.5031</v>
       </c>
       <c r="G158" t="n">
-        <v>-10554326.55758772</v>
-      </c>
-      <c r="H158" t="n">
         <v>2</v>
       </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>0.5909</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5895,24 +5169,15 @@
         <v>1736616.3084</v>
       </c>
       <c r="G159" t="n">
-        <v>-12290942.86598772</v>
-      </c>
-      <c r="H159" t="n">
         <v>2</v>
       </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>0.5909</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>0.9939845997630734</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5934,18 +5199,15 @@
         <v>2813408.6604</v>
       </c>
       <c r="G160" t="n">
-        <v>-15104351.52638772</v>
-      </c>
-      <c r="H160" t="n">
         <v>2</v>
       </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5967,18 +5229,15 @@
         <v>1234133.5562</v>
       </c>
       <c r="G161" t="n">
-        <v>-13870217.97018772</v>
-      </c>
-      <c r="H161" t="n">
         <v>2</v>
       </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6000,22 +5259,15 @@
         <v>1129.1514</v>
       </c>
       <c r="G162" t="n">
-        <v>-13869088.81878772</v>
-      </c>
-      <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0.5908</v>
-      </c>
-      <c r="J162" t="n">
-        <v>0.5908</v>
-      </c>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6037,24 +5289,15 @@
         <v>0.725</v>
       </c>
       <c r="G163" t="n">
-        <v>-13869089.54378772</v>
-      </c>
-      <c r="H163" t="n">
         <v>2</v>
       </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>0.5908</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
